--- a/data/Web_MEM_MGU/2023_11_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2023_11_mem_mgu.xlsx
@@ -2601,7 +2601,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1698796800</v>
+        <v>1698786000</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1698800400</v>
+        <v>1698789600</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1698804000</v>
+        <v>1698793200</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1698807600</v>
+        <v>1698796800</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1698811200</v>
+        <v>1698800400</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1698814800</v>
+        <v>1698804000</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1698818400</v>
+        <v>1698807600</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1698822000</v>
+        <v>1698811200</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1698825600</v>
+        <v>1698814800</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1698829200</v>
+        <v>1698818400</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1698832800</v>
+        <v>1698822000</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1698836400</v>
+        <v>1698825600</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1698840000</v>
+        <v>1698829200</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1698843600</v>
+        <v>1698832800</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1698847200</v>
+        <v>1698836400</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1698850800</v>
+        <v>1698840000</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1698854400</v>
+        <v>1698843600</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>1698854400</v>
+        <v>1698843600</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1698858000</v>
+        <v>1698847200</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1698858000</v>
+        <v>1698847200</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1698861600</v>
+        <v>1698850800</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>1698861600</v>
+        <v>1698850800</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1698865200</v>
+        <v>1698854400</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>1698865200</v>
+        <v>1698854400</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>1698868800</v>
+        <v>1698858000</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1698868800</v>
+        <v>1698858000</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1698872400</v>
+        <v>1698861600</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1698872400</v>
+        <v>1698861600</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1698876000</v>
+        <v>1698865200</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1698876000</v>
+        <v>1698865200</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>1698879600</v>
+        <v>1698868800</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>1698879600</v>
+        <v>1698868800</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>1698883200</v>
+        <v>1698872400</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>1698883200</v>
+        <v>1698872400</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>1698886800</v>
+        <v>1698876000</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>1698886800</v>
+        <v>1698876000</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>1698890400</v>
+        <v>1698879600</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>1698890400</v>
+        <v>1698879600</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>1698894000</v>
+        <v>1698883200</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>1698894000</v>
+        <v>1698883200</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1698897600</v>
+        <v>1698886800</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>1698897600</v>
+        <v>1698886800</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>1698901200</v>
+        <v>1698890400</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>1698901200</v>
+        <v>1698890400</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>1698904800</v>
+        <v>1698894000</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>1698904800</v>
+        <v>1698894000</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>1698908400</v>
+        <v>1698897600</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>1698908400</v>
+        <v>1698897600</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1698912000</v>
+        <v>1698901200</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1698912000</v>
+        <v>1698901200</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>1698915600</v>
+        <v>1698904800</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1698915600</v>
+        <v>1698904800</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>1698919200</v>
+        <v>1698908400</v>
       </c>
       <c r="B54" t="s">
         <v>44</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1698919200</v>
+        <v>1698908400</v>
       </c>
       <c r="B55" t="s">
         <v>44</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1698922800</v>
+        <v>1698912000</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1698922800</v>
+        <v>1698912000</v>
       </c>
       <c r="B57" t="s">
         <v>45</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1698926400</v>
+        <v>1698915600</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1698926400</v>
+        <v>1698915600</v>
       </c>
       <c r="B59" t="s">
         <v>46</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1698930000</v>
+        <v>1698919200</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1698930000</v>
+        <v>1698919200</v>
       </c>
       <c r="B61" t="s">
         <v>47</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1698933600</v>
+        <v>1698922800</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1698933600</v>
+        <v>1698922800</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1698937200</v>
+        <v>1698926400</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1698937200</v>
+        <v>1698926400</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1698940800</v>
+        <v>1698930000</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1698940800</v>
+        <v>1698930000</v>
       </c>
       <c r="B67" t="s">
         <v>50</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1698944400</v>
+        <v>1698933600</v>
       </c>
       <c r="B68" t="s">
         <v>51</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1698944400</v>
+        <v>1698933600</v>
       </c>
       <c r="B69" t="s">
         <v>51</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1698948000</v>
+        <v>1698937200</v>
       </c>
       <c r="B70" t="s">
         <v>52</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1698948000</v>
+        <v>1698937200</v>
       </c>
       <c r="B71" t="s">
         <v>52</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1698951600</v>
+        <v>1698940800</v>
       </c>
       <c r="B72" t="s">
         <v>53</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1698951600</v>
+        <v>1698940800</v>
       </c>
       <c r="B73" t="s">
         <v>53</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1698955200</v>
+        <v>1698944400</v>
       </c>
       <c r="B74" t="s">
         <v>54</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1698955200</v>
+        <v>1698944400</v>
       </c>
       <c r="B75" t="s">
         <v>54</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1698958800</v>
+        <v>1698948000</v>
       </c>
       <c r="B76" t="s">
         <v>55</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1698958800</v>
+        <v>1698948000</v>
       </c>
       <c r="B77" t="s">
         <v>55</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1698962400</v>
+        <v>1698951600</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1698962400</v>
+        <v>1698951600</v>
       </c>
       <c r="B79" t="s">
         <v>56</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1698966000</v>
+        <v>1698955200</v>
       </c>
       <c r="B80" t="s">
         <v>57</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1698966000</v>
+        <v>1698955200</v>
       </c>
       <c r="B81" t="s">
         <v>57</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1698969600</v>
+        <v>1698958800</v>
       </c>
       <c r="B82" t="s">
         <v>58</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1698969600</v>
+        <v>1698958800</v>
       </c>
       <c r="B83" t="s">
         <v>58</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1698973200</v>
+        <v>1698962400</v>
       </c>
       <c r="B84" t="s">
         <v>59</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1698973200</v>
+        <v>1698962400</v>
       </c>
       <c r="B85" t="s">
         <v>59</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1698976800</v>
+        <v>1698966000</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1698976800</v>
+        <v>1698966000</v>
       </c>
       <c r="B87" t="s">
         <v>60</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1698980400</v>
+        <v>1698969600</v>
       </c>
       <c r="B88" t="s">
         <v>61</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1698980400</v>
+        <v>1698969600</v>
       </c>
       <c r="B89" t="s">
         <v>61</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1698984000</v>
+        <v>1698973200</v>
       </c>
       <c r="B90" t="s">
         <v>62</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1698984000</v>
+        <v>1698973200</v>
       </c>
       <c r="B91" t="s">
         <v>62</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1698987600</v>
+        <v>1698976800</v>
       </c>
       <c r="B92" t="s">
         <v>63</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1698987600</v>
+        <v>1698976800</v>
       </c>
       <c r="B93" t="s">
         <v>63</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1698991200</v>
+        <v>1698980400</v>
       </c>
       <c r="B94" t="s">
         <v>64</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1698991200</v>
+        <v>1698980400</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1698994800</v>
+        <v>1698984000</v>
       </c>
       <c r="B96" t="s">
         <v>65</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1698994800</v>
+        <v>1698984000</v>
       </c>
       <c r="B97" t="s">
         <v>65</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1698998400</v>
+        <v>1698987600</v>
       </c>
       <c r="B98" t="s">
         <v>66</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1698998400</v>
+        <v>1698987600</v>
       </c>
       <c r="B99" t="s">
         <v>66</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1699002000</v>
+        <v>1698991200</v>
       </c>
       <c r="B100" t="s">
         <v>67</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1699002000</v>
+        <v>1698991200</v>
       </c>
       <c r="B101" t="s">
         <v>67</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1699005600</v>
+        <v>1698994800</v>
       </c>
       <c r="B102" t="s">
         <v>68</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1699005600</v>
+        <v>1698994800</v>
       </c>
       <c r="B103" t="s">
         <v>68</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1699009200</v>
+        <v>1698998400</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1699009200</v>
+        <v>1698998400</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1699012800</v>
+        <v>1699002000</v>
       </c>
       <c r="B106" t="s">
         <v>70</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1699012800</v>
+        <v>1699002000</v>
       </c>
       <c r="B107" t="s">
         <v>70</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1699016400</v>
+        <v>1699005600</v>
       </c>
       <c r="B108" t="s">
         <v>71</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1699016400</v>
+        <v>1699005600</v>
       </c>
       <c r="B109" t="s">
         <v>71</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1699020000</v>
+        <v>1699009200</v>
       </c>
       <c r="B110" t="s">
         <v>72</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1699020000</v>
+        <v>1699009200</v>
       </c>
       <c r="B111" t="s">
         <v>72</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1699023600</v>
+        <v>1699012800</v>
       </c>
       <c r="B112" t="s">
         <v>73</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1699027200</v>
+        <v>1699016400</v>
       </c>
       <c r="B113" t="s">
         <v>74</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1699030800</v>
+        <v>1699020000</v>
       </c>
       <c r="B114" t="s">
         <v>75</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1699034400</v>
+        <v>1699023600</v>
       </c>
       <c r="B115" t="s">
         <v>76</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1699038000</v>
+        <v>1699027200</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>1699041600</v>
+        <v>1699030800</v>
       </c>
       <c r="B117" t="s">
         <v>78</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>1699045200</v>
+        <v>1699034400</v>
       </c>
       <c r="B118" t="s">
         <v>79</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>1699048800</v>
+        <v>1699038000</v>
       </c>
       <c r="B119" t="s">
         <v>80</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1699052400</v>
+        <v>1699041600</v>
       </c>
       <c r="B120" t="s">
         <v>81</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>1699056000</v>
+        <v>1699045200</v>
       </c>
       <c r="B121" t="s">
         <v>82</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>1699059600</v>
+        <v>1699048800</v>
       </c>
       <c r="B122" t="s">
         <v>83</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>1699063200</v>
+        <v>1699052400</v>
       </c>
       <c r="B123" t="s">
         <v>84</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>1699066800</v>
+        <v>1699056000</v>
       </c>
       <c r="B124" t="s">
         <v>85</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>1699070400</v>
+        <v>1699059600</v>
       </c>
       <c r="B125" t="s">
         <v>86</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>1699074000</v>
+        <v>1699063200</v>
       </c>
       <c r="B126" t="s">
         <v>87</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>1699077600</v>
+        <v>1699066800</v>
       </c>
       <c r="B127" t="s">
         <v>88</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>1699081200</v>
+        <v>1699070400</v>
       </c>
       <c r="B128" t="s">
         <v>89</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>1699084800</v>
+        <v>1699074000</v>
       </c>
       <c r="B129" t="s">
         <v>90</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>1699088400</v>
+        <v>1699077600</v>
       </c>
       <c r="B130" t="s">
         <v>91</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>1699092000</v>
+        <v>1699081200</v>
       </c>
       <c r="B131" t="s">
         <v>92</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>1699095600</v>
+        <v>1699084800</v>
       </c>
       <c r="B132" t="s">
         <v>93</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>1699099200</v>
+        <v>1699088400</v>
       </c>
       <c r="B133" t="s">
         <v>94</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>1699102800</v>
+        <v>1699092000</v>
       </c>
       <c r="B134" t="s">
         <v>95</v>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>1699106400</v>
+        <v>1699095600</v>
       </c>
       <c r="B135" t="s">
         <v>96</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>1699110000</v>
+        <v>1699099200</v>
       </c>
       <c r="B136" t="s">
         <v>97</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>1699113600</v>
+        <v>1699102800</v>
       </c>
       <c r="B137" t="s">
         <v>98</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>1699117200</v>
+        <v>1699106400</v>
       </c>
       <c r="B138" t="s">
         <v>99</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>1699120800</v>
+        <v>1699110000</v>
       </c>
       <c r="B139" t="s">
         <v>100</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>1699124400</v>
+        <v>1699113600</v>
       </c>
       <c r="B140" t="s">
         <v>101</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>1699128000</v>
+        <v>1699117200</v>
       </c>
       <c r="B141" t="s">
         <v>102</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>1699131600</v>
+        <v>1699120800</v>
       </c>
       <c r="B142" t="s">
         <v>103</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>1699135200</v>
+        <v>1699124400</v>
       </c>
       <c r="B143" t="s">
         <v>104</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>1699138800</v>
+        <v>1699128000</v>
       </c>
       <c r="B144" t="s">
         <v>105</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>1699142400</v>
+        <v>1699131600</v>
       </c>
       <c r="B145" t="s">
         <v>106</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>1699146000</v>
+        <v>1699135200</v>
       </c>
       <c r="B146" t="s">
         <v>107</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>1699149600</v>
+        <v>1699138800</v>
       </c>
       <c r="B147" t="s">
         <v>108</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>1699153200</v>
+        <v>1699142400</v>
       </c>
       <c r="B148" t="s">
         <v>109</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1699156800</v>
+        <v>1699146000</v>
       </c>
       <c r="B149" t="s">
         <v>110</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>1699160400</v>
+        <v>1699149600</v>
       </c>
       <c r="B150" t="s">
         <v>111</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>1699164000</v>
+        <v>1699153200</v>
       </c>
       <c r="B151" t="s">
         <v>112</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>1699167600</v>
+        <v>1699156800</v>
       </c>
       <c r="B152" t="s">
         <v>113</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>1699171200</v>
+        <v>1699160400</v>
       </c>
       <c r="B153" t="s">
         <v>114</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>1699174800</v>
+        <v>1699164000</v>
       </c>
       <c r="B154" t="s">
         <v>115</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>1699178400</v>
+        <v>1699167600</v>
       </c>
       <c r="B155" t="s">
         <v>116</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>1699182000</v>
+        <v>1699171200</v>
       </c>
       <c r="B156" t="s">
         <v>117</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>1699185600</v>
+        <v>1699174800</v>
       </c>
       <c r="B157" t="s">
         <v>118</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>1699189200</v>
+        <v>1699178400</v>
       </c>
       <c r="B158" t="s">
         <v>119</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>1699192800</v>
+        <v>1699182000</v>
       </c>
       <c r="B159" t="s">
         <v>120</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>1699196400</v>
+        <v>1699185600</v>
       </c>
       <c r="B160" t="s">
         <v>121</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>1699200000</v>
+        <v>1699189200</v>
       </c>
       <c r="B161" t="s">
         <v>122</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>1699203600</v>
+        <v>1699192800</v>
       </c>
       <c r="B162" t="s">
         <v>123</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>1699207200</v>
+        <v>1699196400</v>
       </c>
       <c r="B163" t="s">
         <v>124</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>1699210800</v>
+        <v>1699200000</v>
       </c>
       <c r="B164" t="s">
         <v>125</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>1699214400</v>
+        <v>1699203600</v>
       </c>
       <c r="B165" t="s">
         <v>126</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>1699218000</v>
+        <v>1699207200</v>
       </c>
       <c r="B166" t="s">
         <v>127</v>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>1699221600</v>
+        <v>1699210800</v>
       </c>
       <c r="B167" t="s">
         <v>128</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>1699225200</v>
+        <v>1699214400</v>
       </c>
       <c r="B168" t="s">
         <v>129</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>1699228800</v>
+        <v>1699218000</v>
       </c>
       <c r="B169" t="s">
         <v>130</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>1699232400</v>
+        <v>1699221600</v>
       </c>
       <c r="B170" t="s">
         <v>131</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>1699236000</v>
+        <v>1699225200</v>
       </c>
       <c r="B171" t="s">
         <v>132</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>1699239600</v>
+        <v>1699228800</v>
       </c>
       <c r="B172" t="s">
         <v>133</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>1699243200</v>
+        <v>1699232400</v>
       </c>
       <c r="B173" t="s">
         <v>134</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>1699246800</v>
+        <v>1699236000</v>
       </c>
       <c r="B174" t="s">
         <v>135</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>1699250400</v>
+        <v>1699239600</v>
       </c>
       <c r="B175" t="s">
         <v>136</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>1699254000</v>
+        <v>1699243200</v>
       </c>
       <c r="B176" t="s">
         <v>137</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>1699257600</v>
+        <v>1699246800</v>
       </c>
       <c r="B177" t="s">
         <v>138</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>1699261200</v>
+        <v>1699250400</v>
       </c>
       <c r="B178" t="s">
         <v>139</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>1699264800</v>
+        <v>1699254000</v>
       </c>
       <c r="B179" t="s">
         <v>140</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>1699268400</v>
+        <v>1699257600</v>
       </c>
       <c r="B180" t="s">
         <v>141</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>1699272000</v>
+        <v>1699261200</v>
       </c>
       <c r="B181" t="s">
         <v>142</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>1699275600</v>
+        <v>1699264800</v>
       </c>
       <c r="B182" t="s">
         <v>143</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>1699279200</v>
+        <v>1699268400</v>
       </c>
       <c r="B183" t="s">
         <v>144</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>1699282800</v>
+        <v>1699272000</v>
       </c>
       <c r="B184" t="s">
         <v>145</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>1699286400</v>
+        <v>1699275600</v>
       </c>
       <c r="B185" t="s">
         <v>146</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>1699290000</v>
+        <v>1699279200</v>
       </c>
       <c r="B186" t="s">
         <v>147</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>1699290000</v>
+        <v>1699279200</v>
       </c>
       <c r="B187" t="s">
         <v>147</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>1699293600</v>
+        <v>1699282800</v>
       </c>
       <c r="B188" t="s">
         <v>148</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>1699293600</v>
+        <v>1699282800</v>
       </c>
       <c r="B189" t="s">
         <v>148</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>1699297200</v>
+        <v>1699286400</v>
       </c>
       <c r="B190" t="s">
         <v>149</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>1699297200</v>
+        <v>1699286400</v>
       </c>
       <c r="B191" t="s">
         <v>149</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>1699300800</v>
+        <v>1699290000</v>
       </c>
       <c r="B192" t="s">
         <v>150</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1699300800</v>
+        <v>1699290000</v>
       </c>
       <c r="B193" t="s">
         <v>150</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>1699300800</v>
+        <v>1699290000</v>
       </c>
       <c r="B194" t="s">
         <v>150</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>1699304400</v>
+        <v>1699293600</v>
       </c>
       <c r="B195" t="s">
         <v>151</v>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>1699304400</v>
+        <v>1699293600</v>
       </c>
       <c r="B196" t="s">
         <v>151</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>1699308000</v>
+        <v>1699297200</v>
       </c>
       <c r="B197" t="s">
         <v>152</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>1699308000</v>
+        <v>1699297200</v>
       </c>
       <c r="B198" t="s">
         <v>152</v>
@@ -8320,7 +8320,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>1699311600</v>
+        <v>1699300800</v>
       </c>
       <c r="B199" t="s">
         <v>153</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>1699311600</v>
+        <v>1699300800</v>
       </c>
       <c r="B200" t="s">
         <v>153</v>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>1699315200</v>
+        <v>1699304400</v>
       </c>
       <c r="B201" t="s">
         <v>154</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>1699315200</v>
+        <v>1699304400</v>
       </c>
       <c r="B202" t="s">
         <v>154</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>1699318800</v>
+        <v>1699308000</v>
       </c>
       <c r="B203" t="s">
         <v>155</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>1699318800</v>
+        <v>1699308000</v>
       </c>
       <c r="B204" t="s">
         <v>155</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>1699322400</v>
+        <v>1699311600</v>
       </c>
       <c r="B205" t="s">
         <v>156</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>1699322400</v>
+        <v>1699311600</v>
       </c>
       <c r="B206" t="s">
         <v>156</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>1699326000</v>
+        <v>1699315200</v>
       </c>
       <c r="B207" t="s">
         <v>157</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208">
-        <v>1699326000</v>
+        <v>1699315200</v>
       </c>
       <c r="B208" t="s">
         <v>157</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>1699329600</v>
+        <v>1699318800</v>
       </c>
       <c r="B209" t="s">
         <v>158</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
-        <v>1699329600</v>
+        <v>1699318800</v>
       </c>
       <c r="B210" t="s">
         <v>158</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>1699333200</v>
+        <v>1699322400</v>
       </c>
       <c r="B211" t="s">
         <v>159</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1699333200</v>
+        <v>1699322400</v>
       </c>
       <c r="B212" t="s">
         <v>159</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213">
-        <v>1699336800</v>
+        <v>1699326000</v>
       </c>
       <c r="B213" t="s">
         <v>160</v>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
-        <v>1699336800</v>
+        <v>1699326000</v>
       </c>
       <c r="B214" t="s">
         <v>160</v>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>1699340400</v>
+        <v>1699329600</v>
       </c>
       <c r="B215" t="s">
         <v>161</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>1699340400</v>
+        <v>1699329600</v>
       </c>
       <c r="B216" t="s">
         <v>161</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>1699344000</v>
+        <v>1699333200</v>
       </c>
       <c r="B217" t="s">
         <v>162</v>
@@ -8901,7 +8901,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>1699344000</v>
+        <v>1699333200</v>
       </c>
       <c r="B218" t="s">
         <v>162</v>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>1699347600</v>
+        <v>1699336800</v>
       </c>
       <c r="B219" t="s">
         <v>163</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>1699347600</v>
+        <v>1699336800</v>
       </c>
       <c r="B220" t="s">
         <v>163</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>1699351200</v>
+        <v>1699340400</v>
       </c>
       <c r="B221" t="s">
         <v>164</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
-        <v>1699351200</v>
+        <v>1699340400</v>
       </c>
       <c r="B222" t="s">
         <v>164</v>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
-        <v>1699354800</v>
+        <v>1699344000</v>
       </c>
       <c r="B223" t="s">
         <v>165</v>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
-        <v>1699354800</v>
+        <v>1699344000</v>
       </c>
       <c r="B224" t="s">
         <v>165</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
-        <v>1699358400</v>
+        <v>1699347600</v>
       </c>
       <c r="B225" t="s">
         <v>166</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226">
-        <v>1699358400</v>
+        <v>1699347600</v>
       </c>
       <c r="B226" t="s">
         <v>166</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>1699362000</v>
+        <v>1699351200</v>
       </c>
       <c r="B227" t="s">
         <v>167</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>1699362000</v>
+        <v>1699351200</v>
       </c>
       <c r="B228" t="s">
         <v>167</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>1699365600</v>
+        <v>1699354800</v>
       </c>
       <c r="B229" t="s">
         <v>168</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>1699365600</v>
+        <v>1699354800</v>
       </c>
       <c r="B230" t="s">
         <v>168</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>1699369200</v>
+        <v>1699358400</v>
       </c>
       <c r="B231" t="s">
         <v>169</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>1699369200</v>
+        <v>1699358400</v>
       </c>
       <c r="B232" t="s">
         <v>169</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
-        <v>1699372800</v>
+        <v>1699362000</v>
       </c>
       <c r="B233" t="s">
         <v>170</v>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
-        <v>1699372800</v>
+        <v>1699362000</v>
       </c>
       <c r="B234" t="s">
         <v>170</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
-        <v>1699376400</v>
+        <v>1699365600</v>
       </c>
       <c r="B235" t="s">
         <v>171</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
-        <v>1699376400</v>
+        <v>1699365600</v>
       </c>
       <c r="B236" t="s">
         <v>171</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
-        <v>1699380000</v>
+        <v>1699369200</v>
       </c>
       <c r="B237" t="s">
         <v>172</v>
@@ -9508,7 +9508,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238">
-        <v>1699380000</v>
+        <v>1699369200</v>
       </c>
       <c r="B238" t="s">
         <v>172</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239">
-        <v>1699383600</v>
+        <v>1699372800</v>
       </c>
       <c r="B239" t="s">
         <v>173</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240">
-        <v>1699383600</v>
+        <v>1699372800</v>
       </c>
       <c r="B240" t="s">
         <v>173</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241">
-        <v>1699387200</v>
+        <v>1699376400</v>
       </c>
       <c r="B241" t="s">
         <v>174</v>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242">
-        <v>1699387200</v>
+        <v>1699376400</v>
       </c>
       <c r="B242" t="s">
         <v>174</v>
@@ -9662,7 +9662,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>1699390800</v>
+        <v>1699380000</v>
       </c>
       <c r="B243" t="s">
         <v>175</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>1699390800</v>
+        <v>1699380000</v>
       </c>
       <c r="B244" t="s">
         <v>175</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>1699394400</v>
+        <v>1699383600</v>
       </c>
       <c r="B245" t="s">
         <v>176</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>1699394400</v>
+        <v>1699383600</v>
       </c>
       <c r="B246" t="s">
         <v>176</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>1699398000</v>
+        <v>1699387200</v>
       </c>
       <c r="B247" t="s">
         <v>177</v>
@@ -9816,7 +9816,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>1699398000</v>
+        <v>1699387200</v>
       </c>
       <c r="B248" t="s">
         <v>177</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>1699401600</v>
+        <v>1699390800</v>
       </c>
       <c r="B249" t="s">
         <v>178</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250">
-        <v>1699401600</v>
+        <v>1699390800</v>
       </c>
       <c r="B250" t="s">
         <v>178</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
-        <v>1699405200</v>
+        <v>1699394400</v>
       </c>
       <c r="B251" t="s">
         <v>179</v>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
-        <v>1699405200</v>
+        <v>1699394400</v>
       </c>
       <c r="B252" t="s">
         <v>179</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
-        <v>1699408800</v>
+        <v>1699398000</v>
       </c>
       <c r="B253" t="s">
         <v>180</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
-        <v>1699408800</v>
+        <v>1699398000</v>
       </c>
       <c r="B254" t="s">
         <v>180</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255">
-        <v>1699412400</v>
+        <v>1699401600</v>
       </c>
       <c r="B255" t="s">
         <v>181</v>
@@ -10060,7 +10060,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
-        <v>1699412400</v>
+        <v>1699401600</v>
       </c>
       <c r="B256" t="s">
         <v>181</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
-        <v>1699416000</v>
+        <v>1699405200</v>
       </c>
       <c r="B257" t="s">
         <v>182</v>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258">
-        <v>1699416000</v>
+        <v>1699405200</v>
       </c>
       <c r="B258" t="s">
         <v>182</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259">
-        <v>1699419600</v>
+        <v>1699408800</v>
       </c>
       <c r="B259" t="s">
         <v>183</v>
@@ -10179,7 +10179,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
-        <v>1699419600</v>
+        <v>1699408800</v>
       </c>
       <c r="B260" t="s">
         <v>183</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
-        <v>1699423200</v>
+        <v>1699412400</v>
       </c>
       <c r="B261" t="s">
         <v>184</v>
@@ -10243,7 +10243,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
-        <v>1699423200</v>
+        <v>1699412400</v>
       </c>
       <c r="B262" t="s">
         <v>184</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263">
-        <v>1699426800</v>
+        <v>1699416000</v>
       </c>
       <c r="B263" t="s">
         <v>185</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264">
-        <v>1699426800</v>
+        <v>1699416000</v>
       </c>
       <c r="B264" t="s">
         <v>185</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265">
-        <v>1699430400</v>
+        <v>1699419600</v>
       </c>
       <c r="B265" t="s">
         <v>186</v>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266">
-        <v>1699430400</v>
+        <v>1699419600</v>
       </c>
       <c r="B266" t="s">
         <v>186</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267">
-        <v>1699434000</v>
+        <v>1699423200</v>
       </c>
       <c r="B267" t="s">
         <v>187</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268">
-        <v>1699434000</v>
+        <v>1699423200</v>
       </c>
       <c r="B268" t="s">
         <v>187</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269">
-        <v>1699437600</v>
+        <v>1699426800</v>
       </c>
       <c r="B269" t="s">
         <v>188</v>
@@ -10484,7 +10484,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270">
-        <v>1699437600</v>
+        <v>1699426800</v>
       </c>
       <c r="B270" t="s">
         <v>188</v>
@@ -10516,7 +10516,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271">
-        <v>1699441200</v>
+        <v>1699430400</v>
       </c>
       <c r="B271" t="s">
         <v>189</v>
@@ -10545,7 +10545,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272">
-        <v>1699441200</v>
+        <v>1699430400</v>
       </c>
       <c r="B272" t="s">
         <v>189</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273">
-        <v>1699444800</v>
+        <v>1699434000</v>
       </c>
       <c r="B273" t="s">
         <v>190</v>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274">
-        <v>1699444800</v>
+        <v>1699434000</v>
       </c>
       <c r="B274" t="s">
         <v>190</v>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275">
-        <v>1699448400</v>
+        <v>1699437600</v>
       </c>
       <c r="B275" t="s">
         <v>191</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276">
-        <v>1699448400</v>
+        <v>1699437600</v>
       </c>
       <c r="B276" t="s">
         <v>191</v>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277">
-        <v>1699452000</v>
+        <v>1699441200</v>
       </c>
       <c r="B277" t="s">
         <v>192</v>
@@ -10728,7 +10728,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278">
-        <v>1699452000</v>
+        <v>1699441200</v>
       </c>
       <c r="B278" t="s">
         <v>192</v>
@@ -10760,7 +10760,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279">
-        <v>1699455600</v>
+        <v>1699444800</v>
       </c>
       <c r="B279" t="s">
         <v>193</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280">
-        <v>1699455600</v>
+        <v>1699444800</v>
       </c>
       <c r="B280" t="s">
         <v>193</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281">
-        <v>1699459200</v>
+        <v>1699448400</v>
       </c>
       <c r="B281" t="s">
         <v>194</v>
@@ -10850,7 +10850,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282">
-        <v>1699462800</v>
+        <v>1699452000</v>
       </c>
       <c r="B282" t="s">
         <v>195</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283">
-        <v>1699466400</v>
+        <v>1699455600</v>
       </c>
       <c r="B283" t="s">
         <v>196</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284">
-        <v>1699470000</v>
+        <v>1699459200</v>
       </c>
       <c r="B284" t="s">
         <v>197</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285">
-        <v>1699473600</v>
+        <v>1699462800</v>
       </c>
       <c r="B285" t="s">
         <v>198</v>
@@ -10966,7 +10966,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286">
-        <v>1699477200</v>
+        <v>1699466400</v>
       </c>
       <c r="B286" t="s">
         <v>199</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287">
-        <v>1699480800</v>
+        <v>1699470000</v>
       </c>
       <c r="B287" t="s">
         <v>200</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288">
-        <v>1699484400</v>
+        <v>1699473600</v>
       </c>
       <c r="B288" t="s">
         <v>201</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289">
-        <v>1699488000</v>
+        <v>1699477200</v>
       </c>
       <c r="B289" t="s">
         <v>202</v>
@@ -11082,7 +11082,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290">
-        <v>1699491600</v>
+        <v>1699480800</v>
       </c>
       <c r="B290" t="s">
         <v>203</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291">
-        <v>1699495200</v>
+        <v>1699484400</v>
       </c>
       <c r="B291" t="s">
         <v>204</v>
@@ -11140,7 +11140,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292">
-        <v>1699498800</v>
+        <v>1699488000</v>
       </c>
       <c r="B292" t="s">
         <v>205</v>
@@ -11169,7 +11169,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293">
-        <v>1699502400</v>
+        <v>1699491600</v>
       </c>
       <c r="B293" t="s">
         <v>206</v>
@@ -11198,7 +11198,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294">
-        <v>1699506000</v>
+        <v>1699495200</v>
       </c>
       <c r="B294" t="s">
         <v>207</v>
@@ -11227,7 +11227,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295">
-        <v>1699509600</v>
+        <v>1699498800</v>
       </c>
       <c r="B295" t="s">
         <v>208</v>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296">
-        <v>1699513200</v>
+        <v>1699502400</v>
       </c>
       <c r="B296" t="s">
         <v>209</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297">
-        <v>1699516800</v>
+        <v>1699506000</v>
       </c>
       <c r="B297" t="s">
         <v>210</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298">
-        <v>1699520400</v>
+        <v>1699509600</v>
       </c>
       <c r="B298" t="s">
         <v>211</v>
@@ -11343,7 +11343,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299">
-        <v>1699524000</v>
+        <v>1699513200</v>
       </c>
       <c r="B299" t="s">
         <v>212</v>
@@ -11372,7 +11372,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300">
-        <v>1699527600</v>
+        <v>1699516800</v>
       </c>
       <c r="B300" t="s">
         <v>213</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301">
-        <v>1699531200</v>
+        <v>1699520400</v>
       </c>
       <c r="B301" t="s">
         <v>214</v>
@@ -11430,7 +11430,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302">
-        <v>1699534800</v>
+        <v>1699524000</v>
       </c>
       <c r="B302" t="s">
         <v>215</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303">
-        <v>1699538400</v>
+        <v>1699527600</v>
       </c>
       <c r="B303" t="s">
         <v>216</v>
@@ -11488,7 +11488,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304">
-        <v>1699542000</v>
+        <v>1699531200</v>
       </c>
       <c r="B304" t="s">
         <v>217</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305">
-        <v>1699545600</v>
+        <v>1699534800</v>
       </c>
       <c r="B305" t="s">
         <v>218</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306">
-        <v>1699549200</v>
+        <v>1699538400</v>
       </c>
       <c r="B306" t="s">
         <v>219</v>
@@ -11575,7 +11575,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307">
-        <v>1699552800</v>
+        <v>1699542000</v>
       </c>
       <c r="B307" t="s">
         <v>220</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308">
-        <v>1699556400</v>
+        <v>1699545600</v>
       </c>
       <c r="B308" t="s">
         <v>221</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309">
-        <v>1699560000</v>
+        <v>1699549200</v>
       </c>
       <c r="B309" t="s">
         <v>222</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310">
-        <v>1699563600</v>
+        <v>1699552800</v>
       </c>
       <c r="B310" t="s">
         <v>223</v>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311">
-        <v>1699567200</v>
+        <v>1699556400</v>
       </c>
       <c r="B311" t="s">
         <v>224</v>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312">
-        <v>1699570800</v>
+        <v>1699560000</v>
       </c>
       <c r="B312" t="s">
         <v>225</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313">
-        <v>1699574400</v>
+        <v>1699563600</v>
       </c>
       <c r="B313" t="s">
         <v>226</v>
@@ -11778,7 +11778,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314">
-        <v>1699578000</v>
+        <v>1699567200</v>
       </c>
       <c r="B314" t="s">
         <v>227</v>
@@ -11807,7 +11807,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315">
-        <v>1699581600</v>
+        <v>1699570800</v>
       </c>
       <c r="B315" t="s">
         <v>228</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316">
-        <v>1699585200</v>
+        <v>1699574400</v>
       </c>
       <c r="B316" t="s">
         <v>229</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317">
-        <v>1699588800</v>
+        <v>1699578000</v>
       </c>
       <c r="B317" t="s">
         <v>230</v>
@@ -11894,7 +11894,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318">
-        <v>1699592400</v>
+        <v>1699581600</v>
       </c>
       <c r="B318" t="s">
         <v>231</v>
@@ -11923,7 +11923,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319">
-        <v>1699596000</v>
+        <v>1699585200</v>
       </c>
       <c r="B319" t="s">
         <v>232</v>
@@ -11952,7 +11952,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320">
-        <v>1699599600</v>
+        <v>1699588800</v>
       </c>
       <c r="B320" t="s">
         <v>233</v>
@@ -11981,7 +11981,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321">
-        <v>1699603200</v>
+        <v>1699592400</v>
       </c>
       <c r="B321" t="s">
         <v>234</v>
@@ -12010,7 +12010,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322">
-        <v>1699606800</v>
+        <v>1699596000</v>
       </c>
       <c r="B322" t="s">
         <v>235</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323">
-        <v>1699610400</v>
+        <v>1699599600</v>
       </c>
       <c r="B323" t="s">
         <v>236</v>
@@ -12068,7 +12068,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324">
-        <v>1699614000</v>
+        <v>1699603200</v>
       </c>
       <c r="B324" t="s">
         <v>237</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325">
-        <v>1699617600</v>
+        <v>1699606800</v>
       </c>
       <c r="B325" t="s">
         <v>238</v>
@@ -12126,7 +12126,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326">
-        <v>1699621200</v>
+        <v>1699610400</v>
       </c>
       <c r="B326" t="s">
         <v>239</v>
@@ -12155,7 +12155,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327">
-        <v>1699624800</v>
+        <v>1699614000</v>
       </c>
       <c r="B327" t="s">
         <v>240</v>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328">
-        <v>1699628400</v>
+        <v>1699617600</v>
       </c>
       <c r="B328" t="s">
         <v>241</v>
@@ -12213,7 +12213,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329">
-        <v>1699632000</v>
+        <v>1699621200</v>
       </c>
       <c r="B329" t="s">
         <v>242</v>
@@ -12242,7 +12242,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330">
-        <v>1699635600</v>
+        <v>1699624800</v>
       </c>
       <c r="B330" t="s">
         <v>243</v>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331">
-        <v>1699639200</v>
+        <v>1699628400</v>
       </c>
       <c r="B331" t="s">
         <v>244</v>
@@ -12300,7 +12300,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332">
-        <v>1699642800</v>
+        <v>1699632000</v>
       </c>
       <c r="B332" t="s">
         <v>245</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333">
-        <v>1699646400</v>
+        <v>1699635600</v>
       </c>
       <c r="B333" t="s">
         <v>246</v>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334">
-        <v>1699650000</v>
+        <v>1699639200</v>
       </c>
       <c r="B334" t="s">
         <v>247</v>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335">
-        <v>1699653600</v>
+        <v>1699642800</v>
       </c>
       <c r="B335" t="s">
         <v>248</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336">
-        <v>1699657200</v>
+        <v>1699646400</v>
       </c>
       <c r="B336" t="s">
         <v>249</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337">
-        <v>1699660800</v>
+        <v>1699650000</v>
       </c>
       <c r="B337" t="s">
         <v>250</v>
@@ -12474,7 +12474,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338">
-        <v>1699664400</v>
+        <v>1699653600</v>
       </c>
       <c r="B338" t="s">
         <v>251</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339">
-        <v>1699668000</v>
+        <v>1699657200</v>
       </c>
       <c r="B339" t="s">
         <v>252</v>
@@ -12532,7 +12532,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340">
-        <v>1699671600</v>
+        <v>1699660800</v>
       </c>
       <c r="B340" t="s">
         <v>253</v>
@@ -12561,7 +12561,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341">
-        <v>1699675200</v>
+        <v>1699664400</v>
       </c>
       <c r="B341" t="s">
         <v>254</v>
@@ -12590,7 +12590,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342">
-        <v>1699678800</v>
+        <v>1699668000</v>
       </c>
       <c r="B342" t="s">
         <v>255</v>
@@ -12619,7 +12619,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343">
-        <v>1699682400</v>
+        <v>1699671600</v>
       </c>
       <c r="B343" t="s">
         <v>256</v>
@@ -12648,7 +12648,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344">
-        <v>1699686000</v>
+        <v>1699675200</v>
       </c>
       <c r="B344" t="s">
         <v>257</v>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345">
-        <v>1699689600</v>
+        <v>1699678800</v>
       </c>
       <c r="B345" t="s">
         <v>258</v>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346">
-        <v>1699693200</v>
+        <v>1699682400</v>
       </c>
       <c r="B346" t="s">
         <v>259</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347">
-        <v>1699696800</v>
+        <v>1699686000</v>
       </c>
       <c r="B347" t="s">
         <v>260</v>
@@ -12764,7 +12764,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348">
-        <v>1699700400</v>
+        <v>1699689600</v>
       </c>
       <c r="B348" t="s">
         <v>261</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349">
-        <v>1699704000</v>
+        <v>1699693200</v>
       </c>
       <c r="B349" t="s">
         <v>262</v>
@@ -12822,7 +12822,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350">
-        <v>1699707600</v>
+        <v>1699696800</v>
       </c>
       <c r="B350" t="s">
         <v>263</v>
@@ -12851,7 +12851,7 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351">
-        <v>1699711200</v>
+        <v>1699700400</v>
       </c>
       <c r="B351" t="s">
         <v>264</v>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352">
-        <v>1699714800</v>
+        <v>1699704000</v>
       </c>
       <c r="B352" t="s">
         <v>265</v>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353">
-        <v>1699718400</v>
+        <v>1699707600</v>
       </c>
       <c r="B353" t="s">
         <v>266</v>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354">
-        <v>1699722000</v>
+        <v>1699711200</v>
       </c>
       <c r="B354" t="s">
         <v>267</v>
@@ -12967,7 +12967,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355">
-        <v>1699725600</v>
+        <v>1699714800</v>
       </c>
       <c r="B355" t="s">
         <v>268</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356">
-        <v>1699729200</v>
+        <v>1699718400</v>
       </c>
       <c r="B356" t="s">
         <v>269</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357">
-        <v>1699732800</v>
+        <v>1699722000</v>
       </c>
       <c r="B357" t="s">
         <v>270</v>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358">
-        <v>1699736400</v>
+        <v>1699725600</v>
       </c>
       <c r="B358" t="s">
         <v>271</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359">
-        <v>1699740000</v>
+        <v>1699729200</v>
       </c>
       <c r="B359" t="s">
         <v>272</v>
@@ -13112,7 +13112,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360">
-        <v>1699743600</v>
+        <v>1699732800</v>
       </c>
       <c r="B360" t="s">
         <v>273</v>
@@ -13141,7 +13141,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361">
-        <v>1699747200</v>
+        <v>1699736400</v>
       </c>
       <c r="B361" t="s">
         <v>274</v>
@@ -13170,7 +13170,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362">
-        <v>1699750800</v>
+        <v>1699740000</v>
       </c>
       <c r="B362" t="s">
         <v>275</v>
@@ -13199,7 +13199,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363">
-        <v>1699754400</v>
+        <v>1699743600</v>
       </c>
       <c r="B363" t="s">
         <v>276</v>
@@ -13228,7 +13228,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364">
-        <v>1699758000</v>
+        <v>1699747200</v>
       </c>
       <c r="B364" t="s">
         <v>277</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365">
-        <v>1699761600</v>
+        <v>1699750800</v>
       </c>
       <c r="B365" t="s">
         <v>278</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366">
-        <v>1699765200</v>
+        <v>1699754400</v>
       </c>
       <c r="B366" t="s">
         <v>279</v>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367">
-        <v>1699768800</v>
+        <v>1699758000</v>
       </c>
       <c r="B367" t="s">
         <v>280</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368">
-        <v>1699772400</v>
+        <v>1699761600</v>
       </c>
       <c r="B368" t="s">
         <v>281</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369">
-        <v>1699776000</v>
+        <v>1699765200</v>
       </c>
       <c r="B369" t="s">
         <v>282</v>
@@ -13402,7 +13402,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370">
-        <v>1699779600</v>
+        <v>1699768800</v>
       </c>
       <c r="B370" t="s">
         <v>283</v>
@@ -13431,7 +13431,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371">
-        <v>1699783200</v>
+        <v>1699772400</v>
       </c>
       <c r="B371" t="s">
         <v>284</v>
@@ -13460,7 +13460,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372">
-        <v>1699786800</v>
+        <v>1699776000</v>
       </c>
       <c r="B372" t="s">
         <v>285</v>
@@ -13489,7 +13489,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373">
-        <v>1699790400</v>
+        <v>1699779600</v>
       </c>
       <c r="B373" t="s">
         <v>286</v>
@@ -13518,7 +13518,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374">
-        <v>1699794000</v>
+        <v>1699783200</v>
       </c>
       <c r="B374" t="s">
         <v>287</v>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375">
-        <v>1699797600</v>
+        <v>1699786800</v>
       </c>
       <c r="B375" t="s">
         <v>288</v>
@@ -13576,7 +13576,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376">
-        <v>1699801200</v>
+        <v>1699790400</v>
       </c>
       <c r="B376" t="s">
         <v>289</v>
@@ -13605,7 +13605,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377">
-        <v>1699804800</v>
+        <v>1699794000</v>
       </c>
       <c r="B377" t="s">
         <v>290</v>
@@ -13634,7 +13634,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378">
-        <v>1699808400</v>
+        <v>1699797600</v>
       </c>
       <c r="B378" t="s">
         <v>291</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379">
-        <v>1699812000</v>
+        <v>1699801200</v>
       </c>
       <c r="B379" t="s">
         <v>292</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380">
-        <v>1699815600</v>
+        <v>1699804800</v>
       </c>
       <c r="B380" t="s">
         <v>293</v>
@@ -13721,7 +13721,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381">
-        <v>1699819200</v>
+        <v>1699808400</v>
       </c>
       <c r="B381" t="s">
         <v>294</v>
@@ -13750,7 +13750,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382">
-        <v>1699822800</v>
+        <v>1699812000</v>
       </c>
       <c r="B382" t="s">
         <v>295</v>
@@ -13779,7 +13779,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383">
-        <v>1699826400</v>
+        <v>1699815600</v>
       </c>
       <c r="B383" t="s">
         <v>296</v>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384">
-        <v>1699830000</v>
+        <v>1699819200</v>
       </c>
       <c r="B384" t="s">
         <v>297</v>
@@ -13837,7 +13837,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385">
-        <v>1699833600</v>
+        <v>1699822800</v>
       </c>
       <c r="B385" t="s">
         <v>298</v>
@@ -13866,7 +13866,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386">
-        <v>1699837200</v>
+        <v>1699826400</v>
       </c>
       <c r="B386" t="s">
         <v>299</v>
@@ -13895,7 +13895,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387">
-        <v>1699840800</v>
+        <v>1699830000</v>
       </c>
       <c r="B387" t="s">
         <v>300</v>
@@ -13924,7 +13924,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388">
-        <v>1699844400</v>
+        <v>1699833600</v>
       </c>
       <c r="B388" t="s">
         <v>301</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389">
-        <v>1699844400</v>
+        <v>1699833600</v>
       </c>
       <c r="B389" t="s">
         <v>301</v>
@@ -13982,7 +13982,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390">
-        <v>1699848000</v>
+        <v>1699837200</v>
       </c>
       <c r="B390" t="s">
         <v>302</v>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391">
-        <v>1699848000</v>
+        <v>1699837200</v>
       </c>
       <c r="B391" t="s">
         <v>302</v>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392">
-        <v>1699851600</v>
+        <v>1699840800</v>
       </c>
       <c r="B392" t="s">
         <v>303</v>
@@ -14069,7 +14069,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393">
-        <v>1699851600</v>
+        <v>1699840800</v>
       </c>
       <c r="B393" t="s">
         <v>303</v>
@@ -14098,7 +14098,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394">
-        <v>1699855200</v>
+        <v>1699844400</v>
       </c>
       <c r="B394" t="s">
         <v>304</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395">
-        <v>1699858800</v>
+        <v>1699848000</v>
       </c>
       <c r="B395" t="s">
         <v>305</v>
@@ -14156,7 +14156,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396">
-        <v>1699862400</v>
+        <v>1699851600</v>
       </c>
       <c r="B396" t="s">
         <v>306</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397">
-        <v>1699866000</v>
+        <v>1699855200</v>
       </c>
       <c r="B397" t="s">
         <v>307</v>
@@ -14214,7 +14214,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398">
-        <v>1699869600</v>
+        <v>1699858800</v>
       </c>
       <c r="B398" t="s">
         <v>308</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399">
-        <v>1699873200</v>
+        <v>1699862400</v>
       </c>
       <c r="B399" t="s">
         <v>309</v>
@@ -14272,7 +14272,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400">
-        <v>1699876800</v>
+        <v>1699866000</v>
       </c>
       <c r="B400" t="s">
         <v>310</v>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401">
-        <v>1699880400</v>
+        <v>1699869600</v>
       </c>
       <c r="B401" t="s">
         <v>311</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402">
-        <v>1699884000</v>
+        <v>1699873200</v>
       </c>
       <c r="B402" t="s">
         <v>312</v>
@@ -14359,7 +14359,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403">
-        <v>1699887600</v>
+        <v>1699876800</v>
       </c>
       <c r="B403" t="s">
         <v>313</v>
@@ -14388,7 +14388,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404">
-        <v>1699891200</v>
+        <v>1699880400</v>
       </c>
       <c r="B404" t="s">
         <v>314</v>
@@ -14417,7 +14417,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405">
-        <v>1699894800</v>
+        <v>1699884000</v>
       </c>
       <c r="B405" t="s">
         <v>315</v>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406">
-        <v>1699898400</v>
+        <v>1699887600</v>
       </c>
       <c r="B406" t="s">
         <v>316</v>
@@ -14475,7 +14475,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407">
-        <v>1699902000</v>
+        <v>1699891200</v>
       </c>
       <c r="B407" t="s">
         <v>317</v>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>1699905600</v>
+        <v>1699894800</v>
       </c>
       <c r="B408" t="s">
         <v>318</v>
@@ -14533,7 +14533,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409">
-        <v>1699909200</v>
+        <v>1699898400</v>
       </c>
       <c r="B409" t="s">
         <v>319</v>
@@ -14562,7 +14562,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410">
-        <v>1699912800</v>
+        <v>1699902000</v>
       </c>
       <c r="B410" t="s">
         <v>320</v>
@@ -14591,7 +14591,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411">
-        <v>1699916400</v>
+        <v>1699905600</v>
       </c>
       <c r="B411" t="s">
         <v>321</v>
@@ -14620,7 +14620,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412">
-        <v>1699920000</v>
+        <v>1699909200</v>
       </c>
       <c r="B412" t="s">
         <v>322</v>
@@ -14649,7 +14649,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413">
-        <v>1699923600</v>
+        <v>1699912800</v>
       </c>
       <c r="B413" t="s">
         <v>323</v>
@@ -14678,7 +14678,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414">
-        <v>1699927200</v>
+        <v>1699916400</v>
       </c>
       <c r="B414" t="s">
         <v>324</v>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415">
-        <v>1699930800</v>
+        <v>1699920000</v>
       </c>
       <c r="B415" t="s">
         <v>325</v>
@@ -14736,7 +14736,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416">
-        <v>1699934400</v>
+        <v>1699923600</v>
       </c>
       <c r="B416" t="s">
         <v>326</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417">
-        <v>1699938000</v>
+        <v>1699927200</v>
       </c>
       <c r="B417" t="s">
         <v>327</v>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418">
-        <v>1699941600</v>
+        <v>1699930800</v>
       </c>
       <c r="B418" t="s">
         <v>328</v>
@@ -14823,7 +14823,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419">
-        <v>1699945200</v>
+        <v>1699934400</v>
       </c>
       <c r="B419" t="s">
         <v>329</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420">
-        <v>1699948800</v>
+        <v>1699938000</v>
       </c>
       <c r="B420" t="s">
         <v>330</v>
@@ -14881,7 +14881,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421">
-        <v>1699952400</v>
+        <v>1699941600</v>
       </c>
       <c r="B421" t="s">
         <v>331</v>
@@ -14910,7 +14910,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422">
-        <v>1699956000</v>
+        <v>1699945200</v>
       </c>
       <c r="B422" t="s">
         <v>332</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423">
-        <v>1699959600</v>
+        <v>1699948800</v>
       </c>
       <c r="B423" t="s">
         <v>333</v>
@@ -14968,7 +14968,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424">
-        <v>1699963200</v>
+        <v>1699952400</v>
       </c>
       <c r="B424" t="s">
         <v>334</v>
@@ -14997,7 +14997,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425">
-        <v>1699966800</v>
+        <v>1699956000</v>
       </c>
       <c r="B425" t="s">
         <v>335</v>
@@ -15026,7 +15026,7 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426">
-        <v>1699970400</v>
+        <v>1699959600</v>
       </c>
       <c r="B426" t="s">
         <v>336</v>
@@ -15055,7 +15055,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427">
-        <v>1699974000</v>
+        <v>1699963200</v>
       </c>
       <c r="B427" t="s">
         <v>337</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428">
-        <v>1699977600</v>
+        <v>1699966800</v>
       </c>
       <c r="B428" t="s">
         <v>338</v>
@@ -15113,7 +15113,7 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429">
-        <v>1699977600</v>
+        <v>1699966800</v>
       </c>
       <c r="B429" t="s">
         <v>338</v>
@@ -15142,7 +15142,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430">
-        <v>1699981200</v>
+        <v>1699970400</v>
       </c>
       <c r="B430" t="s">
         <v>339</v>
@@ -15171,7 +15171,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431">
-        <v>1699981200</v>
+        <v>1699970400</v>
       </c>
       <c r="B431" t="s">
         <v>339</v>
@@ -15200,7 +15200,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432">
-        <v>1699984800</v>
+        <v>1699974000</v>
       </c>
       <c r="B432" t="s">
         <v>340</v>
@@ -15229,7 +15229,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433">
-        <v>1699984800</v>
+        <v>1699974000</v>
       </c>
       <c r="B433" t="s">
         <v>340</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434">
-        <v>1699988400</v>
+        <v>1699977600</v>
       </c>
       <c r="B434" t="s">
         <v>341</v>
@@ -15287,7 +15287,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435">
-        <v>1699988400</v>
+        <v>1699977600</v>
       </c>
       <c r="B435" t="s">
         <v>341</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436">
-        <v>1699992000</v>
+        <v>1699981200</v>
       </c>
       <c r="B436" t="s">
         <v>342</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437">
-        <v>1699992000</v>
+        <v>1699981200</v>
       </c>
       <c r="B437" t="s">
         <v>342</v>
@@ -15374,7 +15374,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>1699995600</v>
+        <v>1699984800</v>
       </c>
       <c r="B438" t="s">
         <v>343</v>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439">
-        <v>1699995600</v>
+        <v>1699984800</v>
       </c>
       <c r="B439" t="s">
         <v>343</v>
@@ -15432,7 +15432,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440">
-        <v>1699999200</v>
+        <v>1699988400</v>
       </c>
       <c r="B440" t="s">
         <v>344</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441">
-        <v>1699999200</v>
+        <v>1699988400</v>
       </c>
       <c r="B441" t="s">
         <v>344</v>
@@ -15490,7 +15490,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442">
-        <v>1700002800</v>
+        <v>1699992000</v>
       </c>
       <c r="B442" t="s">
         <v>345</v>
@@ -15519,7 +15519,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443">
-        <v>1700002800</v>
+        <v>1699992000</v>
       </c>
       <c r="B443" t="s">
         <v>345</v>
@@ -15548,7 +15548,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444">
-        <v>1700006400</v>
+        <v>1699995600</v>
       </c>
       <c r="B444" t="s">
         <v>346</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445">
-        <v>1700006400</v>
+        <v>1699995600</v>
       </c>
       <c r="B445" t="s">
         <v>346</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446">
-        <v>1700010000</v>
+        <v>1699999200</v>
       </c>
       <c r="B446" t="s">
         <v>347</v>
@@ -15635,7 +15635,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447">
-        <v>1700010000</v>
+        <v>1699999200</v>
       </c>
       <c r="B447" t="s">
         <v>347</v>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448">
-        <v>1700013600</v>
+        <v>1700002800</v>
       </c>
       <c r="B448" t="s">
         <v>348</v>
@@ -15693,7 +15693,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449">
-        <v>1700013600</v>
+        <v>1700002800</v>
       </c>
       <c r="B449" t="s">
         <v>348</v>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450">
-        <v>1700017200</v>
+        <v>1700006400</v>
       </c>
       <c r="B450" t="s">
         <v>349</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451">
-        <v>1700017200</v>
+        <v>1700006400</v>
       </c>
       <c r="B451" t="s">
         <v>349</v>
@@ -15780,7 +15780,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452">
-        <v>1700020800</v>
+        <v>1700010000</v>
       </c>
       <c r="B452" t="s">
         <v>350</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453">
-        <v>1700020800</v>
+        <v>1700010000</v>
       </c>
       <c r="B453" t="s">
         <v>350</v>
@@ -15838,7 +15838,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454">
-        <v>1700024400</v>
+        <v>1700013600</v>
       </c>
       <c r="B454" t="s">
         <v>351</v>
@@ -15867,7 +15867,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455">
-        <v>1700024400</v>
+        <v>1700013600</v>
       </c>
       <c r="B455" t="s">
         <v>351</v>
@@ -15896,7 +15896,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456">
-        <v>1700028000</v>
+        <v>1700017200</v>
       </c>
       <c r="B456" t="s">
         <v>352</v>
@@ -15925,7 +15925,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457">
-        <v>1700028000</v>
+        <v>1700017200</v>
       </c>
       <c r="B457" t="s">
         <v>352</v>
@@ -15954,7 +15954,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458">
-        <v>1700031600</v>
+        <v>1700020800</v>
       </c>
       <c r="B458" t="s">
         <v>353</v>
@@ -15983,7 +15983,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459">
-        <v>1700031600</v>
+        <v>1700020800</v>
       </c>
       <c r="B459" t="s">
         <v>353</v>
@@ -16012,7 +16012,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460">
-        <v>1700035200</v>
+        <v>1700024400</v>
       </c>
       <c r="B460" t="s">
         <v>354</v>
@@ -16041,7 +16041,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461">
-        <v>1700035200</v>
+        <v>1700024400</v>
       </c>
       <c r="B461" t="s">
         <v>354</v>
@@ -16070,7 +16070,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462">
-        <v>1700038800</v>
+        <v>1700028000</v>
       </c>
       <c r="B462" t="s">
         <v>355</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463">
-        <v>1700038800</v>
+        <v>1700028000</v>
       </c>
       <c r="B463" t="s">
         <v>355</v>
@@ -16128,7 +16128,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464">
-        <v>1700042400</v>
+        <v>1700031600</v>
       </c>
       <c r="B464" t="s">
         <v>356</v>
@@ -16157,7 +16157,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465">
-        <v>1700046000</v>
+        <v>1700035200</v>
       </c>
       <c r="B465" t="s">
         <v>357</v>
@@ -16186,7 +16186,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>1700046000</v>
+        <v>1700035200</v>
       </c>
       <c r="B466" t="s">
         <v>357</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>1700049600</v>
+        <v>1700038800</v>
       </c>
       <c r="B467" t="s">
         <v>358</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468">
-        <v>1700049600</v>
+        <v>1700038800</v>
       </c>
       <c r="B468" t="s">
         <v>358</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469">
-        <v>1700053200</v>
+        <v>1700042400</v>
       </c>
       <c r="B469" t="s">
         <v>359</v>
@@ -16302,7 +16302,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470">
-        <v>1700056800</v>
+        <v>1700046000</v>
       </c>
       <c r="B470" t="s">
         <v>360</v>
@@ -16331,7 +16331,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471">
-        <v>1700060400</v>
+        <v>1700049600</v>
       </c>
       <c r="B471" t="s">
         <v>361</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472">
-        <v>1700064000</v>
+        <v>1700053200</v>
       </c>
       <c r="B472" t="s">
         <v>362</v>
@@ -16389,7 +16389,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473">
-        <v>1700067600</v>
+        <v>1700056800</v>
       </c>
       <c r="B473" t="s">
         <v>363</v>
@@ -16418,7 +16418,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474">
-        <v>1700071200</v>
+        <v>1700060400</v>
       </c>
       <c r="B474" t="s">
         <v>364</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475">
-        <v>1700074800</v>
+        <v>1700064000</v>
       </c>
       <c r="B475" t="s">
         <v>365</v>
@@ -16476,7 +16476,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476">
-        <v>1700078400</v>
+        <v>1700067600</v>
       </c>
       <c r="B476" t="s">
         <v>366</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477">
-        <v>1700082000</v>
+        <v>1700071200</v>
       </c>
       <c r="B477" t="s">
         <v>367</v>
@@ -16534,7 +16534,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478">
-        <v>1700085600</v>
+        <v>1700074800</v>
       </c>
       <c r="B478" t="s">
         <v>368</v>
@@ -16563,7 +16563,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479">
-        <v>1700089200</v>
+        <v>1700078400</v>
       </c>
       <c r="B479" t="s">
         <v>369</v>
@@ -16592,7 +16592,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480">
-        <v>1700092800</v>
+        <v>1700082000</v>
       </c>
       <c r="B480" t="s">
         <v>370</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481">
-        <v>1700096400</v>
+        <v>1700085600</v>
       </c>
       <c r="B481" t="s">
         <v>371</v>
@@ -16650,7 +16650,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482">
-        <v>1700100000</v>
+        <v>1700089200</v>
       </c>
       <c r="B482" t="s">
         <v>372</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483">
-        <v>1700103600</v>
+        <v>1700092800</v>
       </c>
       <c r="B483" t="s">
         <v>373</v>
@@ -16708,7 +16708,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484">
-        <v>1700107200</v>
+        <v>1700096400</v>
       </c>
       <c r="B484" t="s">
         <v>374</v>
@@ -16737,7 +16737,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485">
-        <v>1700110800</v>
+        <v>1700100000</v>
       </c>
       <c r="B485" t="s">
         <v>375</v>
@@ -16766,7 +16766,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486">
-        <v>1700114400</v>
+        <v>1700103600</v>
       </c>
       <c r="B486" t="s">
         <v>376</v>
@@ -16795,7 +16795,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487">
-        <v>1700118000</v>
+        <v>1700107200</v>
       </c>
       <c r="B487" t="s">
         <v>377</v>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488">
-        <v>1700121600</v>
+        <v>1700110800</v>
       </c>
       <c r="B488" t="s">
         <v>378</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489">
-        <v>1700125200</v>
+        <v>1700114400</v>
       </c>
       <c r="B489" t="s">
         <v>379</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490">
-        <v>1700128800</v>
+        <v>1700118000</v>
       </c>
       <c r="B490" t="s">
         <v>380</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491">
-        <v>1700132400</v>
+        <v>1700121600</v>
       </c>
       <c r="B491" t="s">
         <v>381</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492">
-        <v>1700136000</v>
+        <v>1700125200</v>
       </c>
       <c r="B492" t="s">
         <v>382</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493">
-        <v>1700139600</v>
+        <v>1700128800</v>
       </c>
       <c r="B493" t="s">
         <v>383</v>
@@ -16998,7 +16998,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494">
-        <v>1700143200</v>
+        <v>1700132400</v>
       </c>
       <c r="B494" t="s">
         <v>384</v>
@@ -17027,7 +17027,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495">
-        <v>1700146800</v>
+        <v>1700136000</v>
       </c>
       <c r="B495" t="s">
         <v>385</v>
@@ -17056,7 +17056,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496">
-        <v>1700150400</v>
+        <v>1700139600</v>
       </c>
       <c r="B496" t="s">
         <v>386</v>
@@ -17085,7 +17085,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>1700154000</v>
+        <v>1700143200</v>
       </c>
       <c r="B497" t="s">
         <v>387</v>
@@ -17114,7 +17114,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>1700157600</v>
+        <v>1700146800</v>
       </c>
       <c r="B498" t="s">
         <v>388</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499">
-        <v>1700161200</v>
+        <v>1700150400</v>
       </c>
       <c r="B499" t="s">
         <v>389</v>
@@ -17172,7 +17172,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500">
-        <v>1700164800</v>
+        <v>1700154000</v>
       </c>
       <c r="B500" t="s">
         <v>390</v>
@@ -17201,7 +17201,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501">
-        <v>1700168400</v>
+        <v>1700157600</v>
       </c>
       <c r="B501" t="s">
         <v>391</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502">
-        <v>1700172000</v>
+        <v>1700161200</v>
       </c>
       <c r="B502" t="s">
         <v>392</v>
@@ -17259,7 +17259,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503">
-        <v>1700175600</v>
+        <v>1700164800</v>
       </c>
       <c r="B503" t="s">
         <v>393</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504">
-        <v>1700179200</v>
+        <v>1700168400</v>
       </c>
       <c r="B504" t="s">
         <v>394</v>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505">
-        <v>1700182800</v>
+        <v>1700172000</v>
       </c>
       <c r="B505" t="s">
         <v>395</v>
@@ -17346,7 +17346,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506">
-        <v>1700186400</v>
+        <v>1700175600</v>
       </c>
       <c r="B506" t="s">
         <v>396</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507">
-        <v>1700190000</v>
+        <v>1700179200</v>
       </c>
       <c r="B507" t="s">
         <v>397</v>
@@ -17404,7 +17404,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508">
-        <v>1700190000</v>
+        <v>1700179200</v>
       </c>
       <c r="B508" t="s">
         <v>397</v>
@@ -17433,7 +17433,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509">
-        <v>1700193600</v>
+        <v>1700182800</v>
       </c>
       <c r="B509" t="s">
         <v>398</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510">
-        <v>1700197200</v>
+        <v>1700186400</v>
       </c>
       <c r="B510" t="s">
         <v>399</v>
@@ -17491,7 +17491,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511">
-        <v>1700200800</v>
+        <v>1700190000</v>
       </c>
       <c r="B511" t="s">
         <v>400</v>
@@ -17520,7 +17520,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512">
-        <v>1700204400</v>
+        <v>1700193600</v>
       </c>
       <c r="B512" t="s">
         <v>401</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513">
-        <v>1700208000</v>
+        <v>1700197200</v>
       </c>
       <c r="B513" t="s">
         <v>402</v>
@@ -17578,7 +17578,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514">
-        <v>1700211600</v>
+        <v>1700200800</v>
       </c>
       <c r="B514" t="s">
         <v>403</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515">
-        <v>1700215200</v>
+        <v>1700204400</v>
       </c>
       <c r="B515" t="s">
         <v>404</v>
@@ -17636,7 +17636,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516">
-        <v>1700218800</v>
+        <v>1700208000</v>
       </c>
       <c r="B516" t="s">
         <v>405</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517">
-        <v>1700222400</v>
+        <v>1700211600</v>
       </c>
       <c r="B517" t="s">
         <v>406</v>
@@ -17694,7 +17694,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518">
-        <v>1700226000</v>
+        <v>1700215200</v>
       </c>
       <c r="B518" t="s">
         <v>407</v>
@@ -17723,7 +17723,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519">
-        <v>1700229600</v>
+        <v>1700218800</v>
       </c>
       <c r="B519" t="s">
         <v>408</v>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520">
-        <v>1700233200</v>
+        <v>1700222400</v>
       </c>
       <c r="B520" t="s">
         <v>409</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521">
-        <v>1700236800</v>
+        <v>1700226000</v>
       </c>
       <c r="B521" t="s">
         <v>410</v>
@@ -17810,7 +17810,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522">
-        <v>1700240400</v>
+        <v>1700229600</v>
       </c>
       <c r="B522" t="s">
         <v>411</v>
@@ -17839,7 +17839,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523">
-        <v>1700244000</v>
+        <v>1700233200</v>
       </c>
       <c r="B523" t="s">
         <v>412</v>
@@ -17868,7 +17868,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524">
-        <v>1700247600</v>
+        <v>1700236800</v>
       </c>
       <c r="B524" t="s">
         <v>413</v>
@@ -17897,7 +17897,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525">
-        <v>1700251200</v>
+        <v>1700240400</v>
       </c>
       <c r="B525" t="s">
         <v>414</v>
@@ -17926,7 +17926,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526">
-        <v>1700254800</v>
+        <v>1700244000</v>
       </c>
       <c r="B526" t="s">
         <v>415</v>
@@ -17955,7 +17955,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>1700258400</v>
+        <v>1700247600</v>
       </c>
       <c r="B527" t="s">
         <v>416</v>
@@ -17984,7 +17984,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>1700262000</v>
+        <v>1700251200</v>
       </c>
       <c r="B528" t="s">
         <v>417</v>
@@ -18013,7 +18013,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529">
-        <v>1700265600</v>
+        <v>1700254800</v>
       </c>
       <c r="B529" t="s">
         <v>418</v>
@@ -18042,7 +18042,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530">
-        <v>1700269200</v>
+        <v>1700258400</v>
       </c>
       <c r="B530" t="s">
         <v>419</v>
@@ -18071,7 +18071,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531">
-        <v>1700272800</v>
+        <v>1700262000</v>
       </c>
       <c r="B531" t="s">
         <v>420</v>
@@ -18100,7 +18100,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532">
-        <v>1700276400</v>
+        <v>1700265600</v>
       </c>
       <c r="B532" t="s">
         <v>421</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533">
-        <v>1700280000</v>
+        <v>1700269200</v>
       </c>
       <c r="B533" t="s">
         <v>422</v>
@@ -18158,7 +18158,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534">
-        <v>1700283600</v>
+        <v>1700272800</v>
       </c>
       <c r="B534" t="s">
         <v>423</v>
@@ -18187,7 +18187,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535">
-        <v>1700287200</v>
+        <v>1700276400</v>
       </c>
       <c r="B535" t="s">
         <v>424</v>
@@ -18216,7 +18216,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536">
-        <v>1700290800</v>
+        <v>1700280000</v>
       </c>
       <c r="B536" t="s">
         <v>425</v>
@@ -18245,7 +18245,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537">
-        <v>1700294400</v>
+        <v>1700283600</v>
       </c>
       <c r="B537" t="s">
         <v>426</v>
@@ -18274,7 +18274,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538">
-        <v>1700298000</v>
+        <v>1700287200</v>
       </c>
       <c r="B538" t="s">
         <v>427</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539">
-        <v>1700301600</v>
+        <v>1700290800</v>
       </c>
       <c r="B539" t="s">
         <v>428</v>
@@ -18332,7 +18332,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540">
-        <v>1700305200</v>
+        <v>1700294400</v>
       </c>
       <c r="B540" t="s">
         <v>429</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541">
-        <v>1700308800</v>
+        <v>1700298000</v>
       </c>
       <c r="B541" t="s">
         <v>430</v>
@@ -18390,7 +18390,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542">
-        <v>1700312400</v>
+        <v>1700301600</v>
       </c>
       <c r="B542" t="s">
         <v>431</v>
@@ -18419,7 +18419,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543">
-        <v>1700316000</v>
+        <v>1700305200</v>
       </c>
       <c r="B543" t="s">
         <v>432</v>
@@ -18448,7 +18448,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544">
-        <v>1700319600</v>
+        <v>1700308800</v>
       </c>
       <c r="B544" t="s">
         <v>433</v>
@@ -18477,7 +18477,7 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545">
-        <v>1700323200</v>
+        <v>1700312400</v>
       </c>
       <c r="B545" t="s">
         <v>434</v>
@@ -18506,7 +18506,7 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546">
-        <v>1700326800</v>
+        <v>1700316000</v>
       </c>
       <c r="B546" t="s">
         <v>435</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547">
-        <v>1700330400</v>
+        <v>1700319600</v>
       </c>
       <c r="B547" t="s">
         <v>436</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548">
-        <v>1700334000</v>
+        <v>1700323200</v>
       </c>
       <c r="B548" t="s">
         <v>437</v>
@@ -18593,7 +18593,7 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549">
-        <v>1700337600</v>
+        <v>1700326800</v>
       </c>
       <c r="B549" t="s">
         <v>438</v>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="550" spans="1:10">
       <c r="A550">
-        <v>1700341200</v>
+        <v>1700330400</v>
       </c>
       <c r="B550" t="s">
         <v>439</v>
@@ -18651,7 +18651,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551">
-        <v>1700344800</v>
+        <v>1700334000</v>
       </c>
       <c r="B551" t="s">
         <v>440</v>
@@ -18680,7 +18680,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552">
-        <v>1700348400</v>
+        <v>1700337600</v>
       </c>
       <c r="B552" t="s">
         <v>441</v>
@@ -18709,7 +18709,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553">
-        <v>1700352000</v>
+        <v>1700341200</v>
       </c>
       <c r="B553" t="s">
         <v>442</v>
@@ -18738,7 +18738,7 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554">
-        <v>1700355600</v>
+        <v>1700344800</v>
       </c>
       <c r="B554" t="s">
         <v>443</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="555" spans="1:10">
       <c r="A555">
-        <v>1700359200</v>
+        <v>1700348400</v>
       </c>
       <c r="B555" t="s">
         <v>444</v>
@@ -18796,7 +18796,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556">
-        <v>1700362800</v>
+        <v>1700352000</v>
       </c>
       <c r="B556" t="s">
         <v>445</v>
@@ -18825,7 +18825,7 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557">
-        <v>1700366400</v>
+        <v>1700355600</v>
       </c>
       <c r="B557" t="s">
         <v>446</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558">
-        <v>1700370000</v>
+        <v>1700359200</v>
       </c>
       <c r="B558" t="s">
         <v>447</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="559" spans="1:10">
       <c r="A559">
-        <v>1700373600</v>
+        <v>1700362800</v>
       </c>
       <c r="B559" t="s">
         <v>448</v>
@@ -18912,7 +18912,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560">
-        <v>1700377200</v>
+        <v>1700366400</v>
       </c>
       <c r="B560" t="s">
         <v>449</v>
@@ -18941,7 +18941,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561">
-        <v>1700380800</v>
+        <v>1700370000</v>
       </c>
       <c r="B561" t="s">
         <v>450</v>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562">
-        <v>1700384400</v>
+        <v>1700373600</v>
       </c>
       <c r="B562" t="s">
         <v>451</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563">
-        <v>1700388000</v>
+        <v>1700377200</v>
       </c>
       <c r="B563" t="s">
         <v>452</v>
@@ -19028,7 +19028,7 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564">
-        <v>1700391600</v>
+        <v>1700380800</v>
       </c>
       <c r="B564" t="s">
         <v>453</v>
@@ -19057,7 +19057,7 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565">
-        <v>1700395200</v>
+        <v>1700384400</v>
       </c>
       <c r="B565" t="s">
         <v>454</v>
@@ -19086,7 +19086,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566">
-        <v>1700398800</v>
+        <v>1700388000</v>
       </c>
       <c r="B566" t="s">
         <v>455</v>
@@ -19115,7 +19115,7 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567">
-        <v>1700402400</v>
+        <v>1700391600</v>
       </c>
       <c r="B567" t="s">
         <v>456</v>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="568" spans="1:10">
       <c r="A568">
-        <v>1700406000</v>
+        <v>1700395200</v>
       </c>
       <c r="B568" t="s">
         <v>457</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569">
-        <v>1700409600</v>
+        <v>1700398800</v>
       </c>
       <c r="B569" t="s">
         <v>458</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="570" spans="1:10">
       <c r="A570">
-        <v>1700413200</v>
+        <v>1700402400</v>
       </c>
       <c r="B570" t="s">
         <v>459</v>
@@ -19231,7 +19231,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571">
-        <v>1700416800</v>
+        <v>1700406000</v>
       </c>
       <c r="B571" t="s">
         <v>460</v>
@@ -19260,7 +19260,7 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572">
-        <v>1700420400</v>
+        <v>1700409600</v>
       </c>
       <c r="B572" t="s">
         <v>461</v>
@@ -19289,7 +19289,7 @@
     </row>
     <row r="573" spans="1:10">
       <c r="A573">
-        <v>1700424000</v>
+        <v>1700413200</v>
       </c>
       <c r="B573" t="s">
         <v>462</v>
@@ -19318,7 +19318,7 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574">
-        <v>1700427600</v>
+        <v>1700416800</v>
       </c>
       <c r="B574" t="s">
         <v>463</v>
@@ -19347,7 +19347,7 @@
     </row>
     <row r="575" spans="1:10">
       <c r="A575">
-        <v>1700431200</v>
+        <v>1700420400</v>
       </c>
       <c r="B575" t="s">
         <v>464</v>
@@ -19376,7 +19376,7 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576">
-        <v>1700434800</v>
+        <v>1700424000</v>
       </c>
       <c r="B576" t="s">
         <v>465</v>
@@ -19405,7 +19405,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577">
-        <v>1700438400</v>
+        <v>1700427600</v>
       </c>
       <c r="B577" t="s">
         <v>466</v>
@@ -19434,7 +19434,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578">
-        <v>1700442000</v>
+        <v>1700431200</v>
       </c>
       <c r="B578" t="s">
         <v>467</v>
@@ -19463,7 +19463,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579">
-        <v>1700445600</v>
+        <v>1700434800</v>
       </c>
       <c r="B579" t="s">
         <v>468</v>
@@ -19492,7 +19492,7 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580">
-        <v>1700449200</v>
+        <v>1700438400</v>
       </c>
       <c r="B580" t="s">
         <v>469</v>
@@ -19521,7 +19521,7 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581">
-        <v>1700452800</v>
+        <v>1700442000</v>
       </c>
       <c r="B581" t="s">
         <v>470</v>
@@ -19550,7 +19550,7 @@
     </row>
     <row r="582" spans="1:10">
       <c r="A582">
-        <v>1700456400</v>
+        <v>1700445600</v>
       </c>
       <c r="B582" t="s">
         <v>471</v>
@@ -19579,7 +19579,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583">
-        <v>1700460000</v>
+        <v>1700449200</v>
       </c>
       <c r="B583" t="s">
         <v>472</v>
@@ -19608,7 +19608,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584">
-        <v>1700463600</v>
+        <v>1700452800</v>
       </c>
       <c r="B584" t="s">
         <v>473</v>
@@ -19637,7 +19637,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585">
-        <v>1700467200</v>
+        <v>1700456400</v>
       </c>
       <c r="B585" t="s">
         <v>474</v>
@@ -19666,7 +19666,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586">
-        <v>1700470800</v>
+        <v>1700460000</v>
       </c>
       <c r="B586" t="s">
         <v>475</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587">
-        <v>1700474400</v>
+        <v>1700463600</v>
       </c>
       <c r="B587" t="s">
         <v>476</v>
@@ -19724,7 +19724,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588">
-        <v>1700478000</v>
+        <v>1700467200</v>
       </c>
       <c r="B588" t="s">
         <v>477</v>
@@ -19753,7 +19753,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589">
-        <v>1700481600</v>
+        <v>1700470800</v>
       </c>
       <c r="B589" t="s">
         <v>478</v>
@@ -19782,7 +19782,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590">
-        <v>1700485200</v>
+        <v>1700474400</v>
       </c>
       <c r="B590" t="s">
         <v>479</v>
@@ -19811,7 +19811,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591">
-        <v>1700488800</v>
+        <v>1700478000</v>
       </c>
       <c r="B591" t="s">
         <v>480</v>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592">
-        <v>1700492400</v>
+        <v>1700481600</v>
       </c>
       <c r="B592" t="s">
         <v>481</v>
@@ -19869,7 +19869,7 @@
     </row>
     <row r="593" spans="1:10">
       <c r="A593">
-        <v>1700496000</v>
+        <v>1700485200</v>
       </c>
       <c r="B593" t="s">
         <v>482</v>
@@ -19898,7 +19898,7 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594">
-        <v>1700499600</v>
+        <v>1700488800</v>
       </c>
       <c r="B594" t="s">
         <v>483</v>
@@ -19927,7 +19927,7 @@
     </row>
     <row r="595" spans="1:10">
       <c r="A595">
-        <v>1700503200</v>
+        <v>1700492400</v>
       </c>
       <c r="B595" t="s">
         <v>484</v>
@@ -19956,7 +19956,7 @@
     </row>
     <row r="596" spans="1:10">
       <c r="A596">
-        <v>1700506800</v>
+        <v>1700496000</v>
       </c>
       <c r="B596" t="s">
         <v>485</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597">
-        <v>1700510400</v>
+        <v>1700499600</v>
       </c>
       <c r="B597" t="s">
         <v>486</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598">
-        <v>1700514000</v>
+        <v>1700503200</v>
       </c>
       <c r="B598" t="s">
         <v>487</v>
@@ -20043,7 +20043,7 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599">
-        <v>1700517600</v>
+        <v>1700506800</v>
       </c>
       <c r="B599" t="s">
         <v>488</v>
@@ -20072,7 +20072,7 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600">
-        <v>1700521200</v>
+        <v>1700510400</v>
       </c>
       <c r="B600" t="s">
         <v>489</v>
@@ -20101,7 +20101,7 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601">
-        <v>1700524800</v>
+        <v>1700514000</v>
       </c>
       <c r="B601" t="s">
         <v>490</v>
@@ -20130,7 +20130,7 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602">
-        <v>1700528400</v>
+        <v>1700517600</v>
       </c>
       <c r="B602" t="s">
         <v>491</v>
@@ -20159,7 +20159,7 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603">
-        <v>1700532000</v>
+        <v>1700521200</v>
       </c>
       <c r="B603" t="s">
         <v>492</v>
@@ -20188,7 +20188,7 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604">
-        <v>1700535600</v>
+        <v>1700524800</v>
       </c>
       <c r="B604" t="s">
         <v>493</v>
@@ -20217,7 +20217,7 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605">
-        <v>1700539200</v>
+        <v>1700528400</v>
       </c>
       <c r="B605" t="s">
         <v>494</v>
@@ -20246,7 +20246,7 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606">
-        <v>1700542800</v>
+        <v>1700532000</v>
       </c>
       <c r="B606" t="s">
         <v>495</v>
@@ -20275,7 +20275,7 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607">
-        <v>1700546400</v>
+        <v>1700535600</v>
       </c>
       <c r="B607" t="s">
         <v>496</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608">
-        <v>1700550000</v>
+        <v>1700539200</v>
       </c>
       <c r="B608" t="s">
         <v>497</v>
@@ -20333,7 +20333,7 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609">
-        <v>1700553600</v>
+        <v>1700542800</v>
       </c>
       <c r="B609" t="s">
         <v>498</v>
@@ -20362,7 +20362,7 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610">
-        <v>1700557200</v>
+        <v>1700546400</v>
       </c>
       <c r="B610" t="s">
         <v>499</v>
@@ -20391,7 +20391,7 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611">
-        <v>1700560800</v>
+        <v>1700550000</v>
       </c>
       <c r="B611" t="s">
         <v>500</v>
@@ -20420,7 +20420,7 @@
     </row>
     <row r="612" spans="1:10">
       <c r="A612">
-        <v>1700564400</v>
+        <v>1700553600</v>
       </c>
       <c r="B612" t="s">
         <v>501</v>
@@ -20449,7 +20449,7 @@
     </row>
     <row r="613" spans="1:10">
       <c r="A613">
-        <v>1700568000</v>
+        <v>1700557200</v>
       </c>
       <c r="B613" t="s">
         <v>502</v>
@@ -20478,7 +20478,7 @@
     </row>
     <row r="614" spans="1:10">
       <c r="A614">
-        <v>1700571600</v>
+        <v>1700560800</v>
       </c>
       <c r="B614" t="s">
         <v>503</v>
@@ -20507,7 +20507,7 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615">
-        <v>1700575200</v>
+        <v>1700564400</v>
       </c>
       <c r="B615" t="s">
         <v>504</v>
@@ -20536,7 +20536,7 @@
     </row>
     <row r="616" spans="1:10">
       <c r="A616">
-        <v>1700578800</v>
+        <v>1700568000</v>
       </c>
       <c r="B616" t="s">
         <v>505</v>
@@ -20565,7 +20565,7 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617">
-        <v>1700582400</v>
+        <v>1700571600</v>
       </c>
       <c r="B617" t="s">
         <v>506</v>
@@ -20594,7 +20594,7 @@
     </row>
     <row r="618" spans="1:10">
       <c r="A618">
-        <v>1700586000</v>
+        <v>1700575200</v>
       </c>
       <c r="B618" t="s">
         <v>507</v>
@@ -20623,7 +20623,7 @@
     </row>
     <row r="619" spans="1:10">
       <c r="A619">
-        <v>1700589600</v>
+        <v>1700578800</v>
       </c>
       <c r="B619" t="s">
         <v>508</v>
@@ -20652,7 +20652,7 @@
     </row>
     <row r="620" spans="1:10">
       <c r="A620">
-        <v>1700593200</v>
+        <v>1700582400</v>
       </c>
       <c r="B620" t="s">
         <v>509</v>
@@ -20681,7 +20681,7 @@
     </row>
     <row r="621" spans="1:10">
       <c r="A621">
-        <v>1700596800</v>
+        <v>1700586000</v>
       </c>
       <c r="B621" t="s">
         <v>510</v>
@@ -20710,7 +20710,7 @@
     </row>
     <row r="622" spans="1:10">
       <c r="A622">
-        <v>1700600400</v>
+        <v>1700589600</v>
       </c>
       <c r="B622" t="s">
         <v>511</v>
@@ -20739,7 +20739,7 @@
     </row>
     <row r="623" spans="1:10">
       <c r="A623">
-        <v>1700604000</v>
+        <v>1700593200</v>
       </c>
       <c r="B623" t="s">
         <v>512</v>
@@ -20768,7 +20768,7 @@
     </row>
     <row r="624" spans="1:10">
       <c r="A624">
-        <v>1700607600</v>
+        <v>1700596800</v>
       </c>
       <c r="B624" t="s">
         <v>513</v>
@@ -20797,7 +20797,7 @@
     </row>
     <row r="625" spans="1:10">
       <c r="A625">
-        <v>1700611200</v>
+        <v>1700600400</v>
       </c>
       <c r="B625" t="s">
         <v>514</v>
@@ -20826,7 +20826,7 @@
     </row>
     <row r="626" spans="1:10">
       <c r="A626">
-        <v>1700614800</v>
+        <v>1700604000</v>
       </c>
       <c r="B626" t="s">
         <v>515</v>
@@ -20855,7 +20855,7 @@
     </row>
     <row r="627" spans="1:10">
       <c r="A627">
-        <v>1700618400</v>
+        <v>1700607600</v>
       </c>
       <c r="B627" t="s">
         <v>516</v>
@@ -20884,7 +20884,7 @@
     </row>
     <row r="628" spans="1:10">
       <c r="A628">
-        <v>1700622000</v>
+        <v>1700611200</v>
       </c>
       <c r="B628" t="s">
         <v>517</v>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629">
-        <v>1700625600</v>
+        <v>1700614800</v>
       </c>
       <c r="B629" t="s">
         <v>518</v>
@@ -20942,7 +20942,7 @@
     </row>
     <row r="630" spans="1:10">
       <c r="A630">
-        <v>1700629200</v>
+        <v>1700618400</v>
       </c>
       <c r="B630" t="s">
         <v>519</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="631" spans="1:10">
       <c r="A631">
-        <v>1700632800</v>
+        <v>1700622000</v>
       </c>
       <c r="B631" t="s">
         <v>520</v>
@@ -21000,7 +21000,7 @@
     </row>
     <row r="632" spans="1:10">
       <c r="A632">
-        <v>1700636400</v>
+        <v>1700625600</v>
       </c>
       <c r="B632" t="s">
         <v>521</v>
@@ -21029,7 +21029,7 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633">
-        <v>1700640000</v>
+        <v>1700629200</v>
       </c>
       <c r="B633" t="s">
         <v>522</v>
@@ -21058,7 +21058,7 @@
     </row>
     <row r="634" spans="1:10">
       <c r="A634">
-        <v>1700643600</v>
+        <v>1700632800</v>
       </c>
       <c r="B634" t="s">
         <v>523</v>
@@ -21087,7 +21087,7 @@
     </row>
     <row r="635" spans="1:10">
       <c r="A635">
-        <v>1700647200</v>
+        <v>1700636400</v>
       </c>
       <c r="B635" t="s">
         <v>524</v>
@@ -21116,7 +21116,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636">
-        <v>1700650800</v>
+        <v>1700640000</v>
       </c>
       <c r="B636" t="s">
         <v>525</v>
@@ -21145,7 +21145,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637">
-        <v>1700654400</v>
+        <v>1700643600</v>
       </c>
       <c r="B637" t="s">
         <v>526</v>
@@ -21174,7 +21174,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638">
-        <v>1700658000</v>
+        <v>1700647200</v>
       </c>
       <c r="B638" t="s">
         <v>527</v>
@@ -21203,7 +21203,7 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639">
-        <v>1700661600</v>
+        <v>1700650800</v>
       </c>
       <c r="B639" t="s">
         <v>528</v>
@@ -21232,7 +21232,7 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640">
-        <v>1700665200</v>
+        <v>1700654400</v>
       </c>
       <c r="B640" t="s">
         <v>529</v>
@@ -21261,7 +21261,7 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641">
-        <v>1700668800</v>
+        <v>1700658000</v>
       </c>
       <c r="B641" t="s">
         <v>530</v>
@@ -21290,7 +21290,7 @@
     </row>
     <row r="642" spans="1:10">
       <c r="A642">
-        <v>1700672400</v>
+        <v>1700661600</v>
       </c>
       <c r="B642" t="s">
         <v>531</v>
@@ -21319,7 +21319,7 @@
     </row>
     <row r="643" spans="1:10">
       <c r="A643">
-        <v>1700676000</v>
+        <v>1700665200</v>
       </c>
       <c r="B643" t="s">
         <v>532</v>
@@ -21348,7 +21348,7 @@
     </row>
     <row r="644" spans="1:10">
       <c r="A644">
-        <v>1700679600</v>
+        <v>1700668800</v>
       </c>
       <c r="B644" t="s">
         <v>533</v>
@@ -21377,7 +21377,7 @@
     </row>
     <row r="645" spans="1:10">
       <c r="A645">
-        <v>1700683200</v>
+        <v>1700672400</v>
       </c>
       <c r="B645" t="s">
         <v>534</v>
@@ -21406,7 +21406,7 @@
     </row>
     <row r="646" spans="1:10">
       <c r="A646">
-        <v>1700686800</v>
+        <v>1700676000</v>
       </c>
       <c r="B646" t="s">
         <v>535</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="647" spans="1:10">
       <c r="A647">
-        <v>1700690400</v>
+        <v>1700679600</v>
       </c>
       <c r="B647" t="s">
         <v>536</v>
@@ -21464,7 +21464,7 @@
     </row>
     <row r="648" spans="1:10">
       <c r="A648">
-        <v>1700694000</v>
+        <v>1700683200</v>
       </c>
       <c r="B648" t="s">
         <v>537</v>
@@ -21493,7 +21493,7 @@
     </row>
     <row r="649" spans="1:10">
       <c r="A649">
-        <v>1700697600</v>
+        <v>1700686800</v>
       </c>
       <c r="B649" t="s">
         <v>538</v>
@@ -21522,7 +21522,7 @@
     </row>
     <row r="650" spans="1:10">
       <c r="A650">
-        <v>1700701200</v>
+        <v>1700690400</v>
       </c>
       <c r="B650" t="s">
         <v>539</v>
@@ -21551,7 +21551,7 @@
     </row>
     <row r="651" spans="1:10">
       <c r="A651">
-        <v>1700704800</v>
+        <v>1700694000</v>
       </c>
       <c r="B651" t="s">
         <v>540</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="652" spans="1:10">
       <c r="A652">
-        <v>1700708400</v>
+        <v>1700697600</v>
       </c>
       <c r="B652" t="s">
         <v>541</v>
@@ -21609,7 +21609,7 @@
     </row>
     <row r="653" spans="1:10">
       <c r="A653">
-        <v>1700712000</v>
+        <v>1700701200</v>
       </c>
       <c r="B653" t="s">
         <v>542</v>
@@ -21638,7 +21638,7 @@
     </row>
     <row r="654" spans="1:10">
       <c r="A654">
-        <v>1700715600</v>
+        <v>1700704800</v>
       </c>
       <c r="B654" t="s">
         <v>543</v>
@@ -21667,7 +21667,7 @@
     </row>
     <row r="655" spans="1:10">
       <c r="A655">
-        <v>1700719200</v>
+        <v>1700708400</v>
       </c>
       <c r="B655" t="s">
         <v>544</v>
@@ -21696,7 +21696,7 @@
     </row>
     <row r="656" spans="1:10">
       <c r="A656">
-        <v>1700722800</v>
+        <v>1700712000</v>
       </c>
       <c r="B656" t="s">
         <v>545</v>
@@ -21725,7 +21725,7 @@
     </row>
     <row r="657" spans="1:10">
       <c r="A657">
-        <v>1700726400</v>
+        <v>1700715600</v>
       </c>
       <c r="B657" t="s">
         <v>546</v>
@@ -21754,7 +21754,7 @@
     </row>
     <row r="658" spans="1:10">
       <c r="A658">
-        <v>1700730000</v>
+        <v>1700719200</v>
       </c>
       <c r="B658" t="s">
         <v>547</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="659" spans="1:10">
       <c r="A659">
-        <v>1700733600</v>
+        <v>1700722800</v>
       </c>
       <c r="B659" t="s">
         <v>548</v>
@@ -21812,7 +21812,7 @@
     </row>
     <row r="660" spans="1:10">
       <c r="A660">
-        <v>1700737200</v>
+        <v>1700726400</v>
       </c>
       <c r="B660" t="s">
         <v>549</v>
@@ -21841,7 +21841,7 @@
     </row>
     <row r="661" spans="1:10">
       <c r="A661">
-        <v>1700740800</v>
+        <v>1700730000</v>
       </c>
       <c r="B661" t="s">
         <v>550</v>
@@ -21870,7 +21870,7 @@
     </row>
     <row r="662" spans="1:10">
       <c r="A662">
-        <v>1700744400</v>
+        <v>1700733600</v>
       </c>
       <c r="B662" t="s">
         <v>551</v>
@@ -21899,7 +21899,7 @@
     </row>
     <row r="663" spans="1:10">
       <c r="A663">
-        <v>1700748000</v>
+        <v>1700737200</v>
       </c>
       <c r="B663" t="s">
         <v>552</v>
@@ -21928,7 +21928,7 @@
     </row>
     <row r="664" spans="1:10">
       <c r="A664">
-        <v>1700751600</v>
+        <v>1700740800</v>
       </c>
       <c r="B664" t="s">
         <v>553</v>
@@ -21957,7 +21957,7 @@
     </row>
     <row r="665" spans="1:10">
       <c r="A665">
-        <v>1700755200</v>
+        <v>1700744400</v>
       </c>
       <c r="B665" t="s">
         <v>554</v>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="666" spans="1:10">
       <c r="A666">
-        <v>1700758800</v>
+        <v>1700748000</v>
       </c>
       <c r="B666" t="s">
         <v>555</v>
@@ -22015,7 +22015,7 @@
     </row>
     <row r="667" spans="1:10">
       <c r="A667">
-        <v>1700762400</v>
+        <v>1700751600</v>
       </c>
       <c r="B667" t="s">
         <v>556</v>
@@ -22044,7 +22044,7 @@
     </row>
     <row r="668" spans="1:10">
       <c r="A668">
-        <v>1700766000</v>
+        <v>1700755200</v>
       </c>
       <c r="B668" t="s">
         <v>557</v>
@@ -22073,7 +22073,7 @@
     </row>
     <row r="669" spans="1:10">
       <c r="A669">
-        <v>1700769600</v>
+        <v>1700758800</v>
       </c>
       <c r="B669" t="s">
         <v>558</v>
@@ -22102,7 +22102,7 @@
     </row>
     <row r="670" spans="1:10">
       <c r="A670">
-        <v>1700773200</v>
+        <v>1700762400</v>
       </c>
       <c r="B670" t="s">
         <v>559</v>
@@ -22131,7 +22131,7 @@
     </row>
     <row r="671" spans="1:10">
       <c r="A671">
-        <v>1700776800</v>
+        <v>1700766000</v>
       </c>
       <c r="B671" t="s">
         <v>560</v>
@@ -22160,7 +22160,7 @@
     </row>
     <row r="672" spans="1:10">
       <c r="A672">
-        <v>1700780400</v>
+        <v>1700769600</v>
       </c>
       <c r="B672" t="s">
         <v>561</v>
@@ -22189,7 +22189,7 @@
     </row>
     <row r="673" spans="1:10">
       <c r="A673">
-        <v>1700784000</v>
+        <v>1700773200</v>
       </c>
       <c r="B673" t="s">
         <v>562</v>
@@ -22218,7 +22218,7 @@
     </row>
     <row r="674" spans="1:10">
       <c r="A674">
-        <v>1700787600</v>
+        <v>1700776800</v>
       </c>
       <c r="B674" t="s">
         <v>563</v>
@@ -22247,7 +22247,7 @@
     </row>
     <row r="675" spans="1:10">
       <c r="A675">
-        <v>1700791200</v>
+        <v>1700780400</v>
       </c>
       <c r="B675" t="s">
         <v>564</v>
@@ -22276,7 +22276,7 @@
     </row>
     <row r="676" spans="1:10">
       <c r="A676">
-        <v>1700794800</v>
+        <v>1700784000</v>
       </c>
       <c r="B676" t="s">
         <v>565</v>
@@ -22305,7 +22305,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677">
-        <v>1700798400</v>
+        <v>1700787600</v>
       </c>
       <c r="B677" t="s">
         <v>566</v>
@@ -22334,7 +22334,7 @@
     </row>
     <row r="678" spans="1:10">
       <c r="A678">
-        <v>1700802000</v>
+        <v>1700791200</v>
       </c>
       <c r="B678" t="s">
         <v>567</v>
@@ -22363,7 +22363,7 @@
     </row>
     <row r="679" spans="1:10">
       <c r="A679">
-        <v>1700805600</v>
+        <v>1700794800</v>
       </c>
       <c r="B679" t="s">
         <v>568</v>
@@ -22392,7 +22392,7 @@
     </row>
     <row r="680" spans="1:10">
       <c r="A680">
-        <v>1700809200</v>
+        <v>1700798400</v>
       </c>
       <c r="B680" t="s">
         <v>569</v>
@@ -22421,7 +22421,7 @@
     </row>
     <row r="681" spans="1:10">
       <c r="A681">
-        <v>1700812800</v>
+        <v>1700802000</v>
       </c>
       <c r="B681" t="s">
         <v>570</v>
@@ -22450,7 +22450,7 @@
     </row>
     <row r="682" spans="1:10">
       <c r="A682">
-        <v>1700816400</v>
+        <v>1700805600</v>
       </c>
       <c r="B682" t="s">
         <v>571</v>
@@ -22479,7 +22479,7 @@
     </row>
     <row r="683" spans="1:10">
       <c r="A683">
-        <v>1700820000</v>
+        <v>1700809200</v>
       </c>
       <c r="B683" t="s">
         <v>572</v>
@@ -22508,7 +22508,7 @@
     </row>
     <row r="684" spans="1:10">
       <c r="A684">
-        <v>1700823600</v>
+        <v>1700812800</v>
       </c>
       <c r="B684" t="s">
         <v>573</v>
@@ -22537,7 +22537,7 @@
     </row>
     <row r="685" spans="1:10">
       <c r="A685">
-        <v>1700827200</v>
+        <v>1700816400</v>
       </c>
       <c r="B685" t="s">
         <v>574</v>
@@ -22566,7 +22566,7 @@
     </row>
     <row r="686" spans="1:10">
       <c r="A686">
-        <v>1700830800</v>
+        <v>1700820000</v>
       </c>
       <c r="B686" t="s">
         <v>575</v>
@@ -22595,7 +22595,7 @@
     </row>
     <row r="687" spans="1:10">
       <c r="A687">
-        <v>1700834400</v>
+        <v>1700823600</v>
       </c>
       <c r="B687" t="s">
         <v>576</v>
@@ -22624,7 +22624,7 @@
     </row>
     <row r="688" spans="1:10">
       <c r="A688">
-        <v>1700838000</v>
+        <v>1700827200</v>
       </c>
       <c r="B688" t="s">
         <v>577</v>
@@ -22653,7 +22653,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689">
-        <v>1700841600</v>
+        <v>1700830800</v>
       </c>
       <c r="B689" t="s">
         <v>578</v>
@@ -22682,7 +22682,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690">
-        <v>1700845200</v>
+        <v>1700834400</v>
       </c>
       <c r="B690" t="s">
         <v>579</v>
@@ -22711,7 +22711,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691">
-        <v>1700848800</v>
+        <v>1700838000</v>
       </c>
       <c r="B691" t="s">
         <v>580</v>
@@ -22740,7 +22740,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692">
-        <v>1700852400</v>
+        <v>1700841600</v>
       </c>
       <c r="B692" t="s">
         <v>581</v>
@@ -22769,7 +22769,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693">
-        <v>1700856000</v>
+        <v>1700845200</v>
       </c>
       <c r="B693" t="s">
         <v>582</v>
@@ -22798,7 +22798,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694">
-        <v>1700859600</v>
+        <v>1700848800</v>
       </c>
       <c r="B694" t="s">
         <v>583</v>
@@ -22827,7 +22827,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695">
-        <v>1700863200</v>
+        <v>1700852400</v>
       </c>
       <c r="B695" t="s">
         <v>584</v>
@@ -22856,7 +22856,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696">
-        <v>1700866800</v>
+        <v>1700856000</v>
       </c>
       <c r="B696" t="s">
         <v>585</v>
@@ -22885,7 +22885,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697">
-        <v>1700870400</v>
+        <v>1700859600</v>
       </c>
       <c r="B697" t="s">
         <v>586</v>
@@ -22914,7 +22914,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698">
-        <v>1700874000</v>
+        <v>1700863200</v>
       </c>
       <c r="B698" t="s">
         <v>587</v>
@@ -22943,7 +22943,7 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699">
-        <v>1700877600</v>
+        <v>1700866800</v>
       </c>
       <c r="B699" t="s">
         <v>588</v>
@@ -22972,7 +22972,7 @@
     </row>
     <row r="700" spans="1:10">
       <c r="A700">
-        <v>1700881200</v>
+        <v>1700870400</v>
       </c>
       <c r="B700" t="s">
         <v>589</v>
@@ -23001,7 +23001,7 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701">
-        <v>1700884800</v>
+        <v>1700874000</v>
       </c>
       <c r="B701" t="s">
         <v>590</v>
@@ -23030,7 +23030,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702">
-        <v>1700888400</v>
+        <v>1700877600</v>
       </c>
       <c r="B702" t="s">
         <v>591</v>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703">
-        <v>1700892000</v>
+        <v>1700881200</v>
       </c>
       <c r="B703" t="s">
         <v>592</v>
@@ -23088,7 +23088,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704">
-        <v>1700895600</v>
+        <v>1700884800</v>
       </c>
       <c r="B704" t="s">
         <v>593</v>
@@ -23117,7 +23117,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705">
-        <v>1700899200</v>
+        <v>1700888400</v>
       </c>
       <c r="B705" t="s">
         <v>594</v>
@@ -23146,7 +23146,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706">
-        <v>1700902800</v>
+        <v>1700892000</v>
       </c>
       <c r="B706" t="s">
         <v>595</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707">
-        <v>1700906400</v>
+        <v>1700895600</v>
       </c>
       <c r="B707" t="s">
         <v>596</v>
@@ -23204,7 +23204,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708">
-        <v>1700910000</v>
+        <v>1700899200</v>
       </c>
       <c r="B708" t="s">
         <v>597</v>
@@ -23233,7 +23233,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709">
-        <v>1700913600</v>
+        <v>1700902800</v>
       </c>
       <c r="B709" t="s">
         <v>598</v>
@@ -23262,7 +23262,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710">
-        <v>1700917200</v>
+        <v>1700906400</v>
       </c>
       <c r="B710" t="s">
         <v>599</v>
@@ -23291,7 +23291,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711">
-        <v>1700920800</v>
+        <v>1700910000</v>
       </c>
       <c r="B711" t="s">
         <v>600</v>
@@ -23320,7 +23320,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712">
-        <v>1700924400</v>
+        <v>1700913600</v>
       </c>
       <c r="B712" t="s">
         <v>601</v>
@@ -23349,7 +23349,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713">
-        <v>1700928000</v>
+        <v>1700917200</v>
       </c>
       <c r="B713" t="s">
         <v>602</v>
@@ -23378,7 +23378,7 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714">
-        <v>1700931600</v>
+        <v>1700920800</v>
       </c>
       <c r="B714" t="s">
         <v>603</v>
@@ -23407,7 +23407,7 @@
     </row>
     <row r="715" spans="1:10">
       <c r="A715">
-        <v>1700935200</v>
+        <v>1700924400</v>
       </c>
       <c r="B715" t="s">
         <v>604</v>
@@ -23436,7 +23436,7 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716">
-        <v>1700938800</v>
+        <v>1700928000</v>
       </c>
       <c r="B716" t="s">
         <v>605</v>
@@ -23465,7 +23465,7 @@
     </row>
     <row r="717" spans="1:10">
       <c r="A717">
-        <v>1700942400</v>
+        <v>1700931600</v>
       </c>
       <c r="B717" t="s">
         <v>606</v>
@@ -23494,7 +23494,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718">
-        <v>1700946000</v>
+        <v>1700935200</v>
       </c>
       <c r="B718" t="s">
         <v>607</v>
@@ -23523,7 +23523,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719">
-        <v>1700949600</v>
+        <v>1700938800</v>
       </c>
       <c r="B719" t="s">
         <v>608</v>
@@ -23552,7 +23552,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720">
-        <v>1700953200</v>
+        <v>1700942400</v>
       </c>
       <c r="B720" t="s">
         <v>609</v>
@@ -23581,7 +23581,7 @@
     </row>
     <row r="721" spans="1:10">
       <c r="A721">
-        <v>1700956800</v>
+        <v>1700946000</v>
       </c>
       <c r="B721" t="s">
         <v>610</v>
@@ -23610,7 +23610,7 @@
     </row>
     <row r="722" spans="1:10">
       <c r="A722">
-        <v>1700960400</v>
+        <v>1700949600</v>
       </c>
       <c r="B722" t="s">
         <v>611</v>
@@ -23639,7 +23639,7 @@
     </row>
     <row r="723" spans="1:10">
       <c r="A723">
-        <v>1700964000</v>
+        <v>1700953200</v>
       </c>
       <c r="B723" t="s">
         <v>612</v>
@@ -23668,7 +23668,7 @@
     </row>
     <row r="724" spans="1:10">
       <c r="A724">
-        <v>1700967600</v>
+        <v>1700956800</v>
       </c>
       <c r="B724" t="s">
         <v>613</v>
@@ -23697,7 +23697,7 @@
     </row>
     <row r="725" spans="1:10">
       <c r="A725">
-        <v>1700971200</v>
+        <v>1700960400</v>
       </c>
       <c r="B725" t="s">
         <v>614</v>
@@ -23726,7 +23726,7 @@
     </row>
     <row r="726" spans="1:10">
       <c r="A726">
-        <v>1700974800</v>
+        <v>1700964000</v>
       </c>
       <c r="B726" t="s">
         <v>615</v>
@@ -23755,7 +23755,7 @@
     </row>
     <row r="727" spans="1:10">
       <c r="A727">
-        <v>1700978400</v>
+        <v>1700967600</v>
       </c>
       <c r="B727" t="s">
         <v>616</v>
@@ -23784,7 +23784,7 @@
     </row>
     <row r="728" spans="1:10">
       <c r="A728">
-        <v>1700982000</v>
+        <v>1700971200</v>
       </c>
       <c r="B728" t="s">
         <v>617</v>
@@ -23813,7 +23813,7 @@
     </row>
     <row r="729" spans="1:10">
       <c r="A729">
-        <v>1700985600</v>
+        <v>1700974800</v>
       </c>
       <c r="B729" t="s">
         <v>618</v>
@@ -23842,7 +23842,7 @@
     </row>
     <row r="730" spans="1:10">
       <c r="A730">
-        <v>1700989200</v>
+        <v>1700978400</v>
       </c>
       <c r="B730" t="s">
         <v>619</v>
@@ -23871,7 +23871,7 @@
     </row>
     <row r="731" spans="1:10">
       <c r="A731">
-        <v>1700989200</v>
+        <v>1700978400</v>
       </c>
       <c r="B731" t="s">
         <v>619</v>
@@ -23900,7 +23900,7 @@
     </row>
     <row r="732" spans="1:10">
       <c r="A732">
-        <v>1700992800</v>
+        <v>1700982000</v>
       </c>
       <c r="B732" t="s">
         <v>620</v>
@@ -23929,7 +23929,7 @@
     </row>
     <row r="733" spans="1:10">
       <c r="A733">
-        <v>1700992800</v>
+        <v>1700982000</v>
       </c>
       <c r="B733" t="s">
         <v>620</v>
@@ -23958,7 +23958,7 @@
     </row>
     <row r="734" spans="1:10">
       <c r="A734">
-        <v>1700996400</v>
+        <v>1700985600</v>
       </c>
       <c r="B734" t="s">
         <v>621</v>
@@ -23987,7 +23987,7 @@
     </row>
     <row r="735" spans="1:10">
       <c r="A735">
-        <v>1701000000</v>
+        <v>1700989200</v>
       </c>
       <c r="B735" t="s">
         <v>622</v>
@@ -24016,7 +24016,7 @@
     </row>
     <row r="736" spans="1:10">
       <c r="A736">
-        <v>1701003600</v>
+        <v>1700992800</v>
       </c>
       <c r="B736" t="s">
         <v>623</v>
@@ -24045,7 +24045,7 @@
     </row>
     <row r="737" spans="1:10">
       <c r="A737">
-        <v>1701007200</v>
+        <v>1700996400</v>
       </c>
       <c r="B737" t="s">
         <v>624</v>
@@ -24074,7 +24074,7 @@
     </row>
     <row r="738" spans="1:10">
       <c r="A738">
-        <v>1701010800</v>
+        <v>1701000000</v>
       </c>
       <c r="B738" t="s">
         <v>625</v>
@@ -24103,7 +24103,7 @@
     </row>
     <row r="739" spans="1:10">
       <c r="A739">
-        <v>1701014400</v>
+        <v>1701003600</v>
       </c>
       <c r="B739" t="s">
         <v>626</v>
@@ -24132,7 +24132,7 @@
     </row>
     <row r="740" spans="1:10">
       <c r="A740">
-        <v>1701018000</v>
+        <v>1701007200</v>
       </c>
       <c r="B740" t="s">
         <v>627</v>
@@ -24161,7 +24161,7 @@
     </row>
     <row r="741" spans="1:10">
       <c r="A741">
-        <v>1701021600</v>
+        <v>1701010800</v>
       </c>
       <c r="B741" t="s">
         <v>628</v>
@@ -24190,7 +24190,7 @@
     </row>
     <row r="742" spans="1:10">
       <c r="A742">
-        <v>1701025200</v>
+        <v>1701014400</v>
       </c>
       <c r="B742" t="s">
         <v>629</v>
@@ -24219,7 +24219,7 @@
     </row>
     <row r="743" spans="1:10">
       <c r="A743">
-        <v>1701028800</v>
+        <v>1701018000</v>
       </c>
       <c r="B743" t="s">
         <v>630</v>
@@ -24248,7 +24248,7 @@
     </row>
     <row r="744" spans="1:10">
       <c r="A744">
-        <v>1701032400</v>
+        <v>1701021600</v>
       </c>
       <c r="B744" t="s">
         <v>631</v>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="745" spans="1:10">
       <c r="A745">
-        <v>1701036000</v>
+        <v>1701025200</v>
       </c>
       <c r="B745" t="s">
         <v>632</v>
@@ -24306,7 +24306,7 @@
     </row>
     <row r="746" spans="1:10">
       <c r="A746">
-        <v>1701039600</v>
+        <v>1701028800</v>
       </c>
       <c r="B746" t="s">
         <v>633</v>
@@ -24335,7 +24335,7 @@
     </row>
     <row r="747" spans="1:10">
       <c r="A747">
-        <v>1701043200</v>
+        <v>1701032400</v>
       </c>
       <c r="B747" t="s">
         <v>634</v>
@@ -24364,7 +24364,7 @@
     </row>
     <row r="748" spans="1:10">
       <c r="A748">
-        <v>1701046800</v>
+        <v>1701036000</v>
       </c>
       <c r="B748" t="s">
         <v>635</v>
@@ -24393,7 +24393,7 @@
     </row>
     <row r="749" spans="1:10">
       <c r="A749">
-        <v>1701050400</v>
+        <v>1701039600</v>
       </c>
       <c r="B749" t="s">
         <v>636</v>
@@ -24422,7 +24422,7 @@
     </row>
     <row r="750" spans="1:10">
       <c r="A750">
-        <v>1701054000</v>
+        <v>1701043200</v>
       </c>
       <c r="B750" t="s">
         <v>637</v>
@@ -24451,7 +24451,7 @@
     </row>
     <row r="751" spans="1:10">
       <c r="A751">
-        <v>1701057600</v>
+        <v>1701046800</v>
       </c>
       <c r="B751" t="s">
         <v>638</v>
@@ -24480,7 +24480,7 @@
     </row>
     <row r="752" spans="1:10">
       <c r="A752">
-        <v>1701061200</v>
+        <v>1701050400</v>
       </c>
       <c r="B752" t="s">
         <v>639</v>
@@ -24509,7 +24509,7 @@
     </row>
     <row r="753" spans="1:10">
       <c r="A753">
-        <v>1701064800</v>
+        <v>1701054000</v>
       </c>
       <c r="B753" t="s">
         <v>640</v>
@@ -24538,7 +24538,7 @@
     </row>
     <row r="754" spans="1:10">
       <c r="A754">
-        <v>1701068400</v>
+        <v>1701057600</v>
       </c>
       <c r="B754" t="s">
         <v>641</v>
@@ -24567,7 +24567,7 @@
     </row>
     <row r="755" spans="1:10">
       <c r="A755">
-        <v>1701072000</v>
+        <v>1701061200</v>
       </c>
       <c r="B755" t="s">
         <v>642</v>
@@ -24596,7 +24596,7 @@
     </row>
     <row r="756" spans="1:10">
       <c r="A756">
-        <v>1701075600</v>
+        <v>1701064800</v>
       </c>
       <c r="B756" t="s">
         <v>643</v>
@@ -24625,7 +24625,7 @@
     </row>
     <row r="757" spans="1:10">
       <c r="A757">
-        <v>1701079200</v>
+        <v>1701068400</v>
       </c>
       <c r="B757" t="s">
         <v>644</v>
@@ -24654,7 +24654,7 @@
     </row>
     <row r="758" spans="1:10">
       <c r="A758">
-        <v>1701082800</v>
+        <v>1701072000</v>
       </c>
       <c r="B758" t="s">
         <v>645</v>
@@ -24683,7 +24683,7 @@
     </row>
     <row r="759" spans="1:10">
       <c r="A759">
-        <v>1701086400</v>
+        <v>1701075600</v>
       </c>
       <c r="B759" t="s">
         <v>646</v>
@@ -24712,7 +24712,7 @@
     </row>
     <row r="760" spans="1:10">
       <c r="A760">
-        <v>1701090000</v>
+        <v>1701079200</v>
       </c>
       <c r="B760" t="s">
         <v>647</v>
@@ -24741,7 +24741,7 @@
     </row>
     <row r="761" spans="1:10">
       <c r="A761">
-        <v>1701093600</v>
+        <v>1701082800</v>
       </c>
       <c r="B761" t="s">
         <v>648</v>
@@ -24770,7 +24770,7 @@
     </row>
     <row r="762" spans="1:10">
       <c r="A762">
-        <v>1701097200</v>
+        <v>1701086400</v>
       </c>
       <c r="B762" t="s">
         <v>649</v>
@@ -24799,7 +24799,7 @@
     </row>
     <row r="763" spans="1:10">
       <c r="A763">
-        <v>1701100800</v>
+        <v>1701090000</v>
       </c>
       <c r="B763" t="s">
         <v>650</v>
@@ -24828,7 +24828,7 @@
     </row>
     <row r="764" spans="1:10">
       <c r="A764">
-        <v>1701104400</v>
+        <v>1701093600</v>
       </c>
       <c r="B764" t="s">
         <v>651</v>
@@ -24857,7 +24857,7 @@
     </row>
     <row r="765" spans="1:10">
       <c r="A765">
-        <v>1701108000</v>
+        <v>1701097200</v>
       </c>
       <c r="B765" t="s">
         <v>652</v>
@@ -24886,7 +24886,7 @@
     </row>
     <row r="766" spans="1:10">
       <c r="A766">
-        <v>1701111600</v>
+        <v>1701100800</v>
       </c>
       <c r="B766" t="s">
         <v>653</v>
@@ -24915,7 +24915,7 @@
     </row>
     <row r="767" spans="1:10">
       <c r="A767">
-        <v>1701115200</v>
+        <v>1701104400</v>
       </c>
       <c r="B767" t="s">
         <v>654</v>
@@ -24944,7 +24944,7 @@
     </row>
     <row r="768" spans="1:10">
       <c r="A768">
-        <v>1701118800</v>
+        <v>1701108000</v>
       </c>
       <c r="B768" t="s">
         <v>655</v>
@@ -24973,7 +24973,7 @@
     </row>
     <row r="769" spans="1:10">
       <c r="A769">
-        <v>1701122400</v>
+        <v>1701111600</v>
       </c>
       <c r="B769" t="s">
         <v>656</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="770" spans="1:10">
       <c r="A770">
-        <v>1701126000</v>
+        <v>1701115200</v>
       </c>
       <c r="B770" t="s">
         <v>657</v>
@@ -25031,7 +25031,7 @@
     </row>
     <row r="771" spans="1:10">
       <c r="A771">
-        <v>1701129600</v>
+        <v>1701118800</v>
       </c>
       <c r="B771" t="s">
         <v>658</v>
@@ -25060,7 +25060,7 @@
     </row>
     <row r="772" spans="1:10">
       <c r="A772">
-        <v>1701133200</v>
+        <v>1701122400</v>
       </c>
       <c r="B772" t="s">
         <v>659</v>
@@ -25089,7 +25089,7 @@
     </row>
     <row r="773" spans="1:10">
       <c r="A773">
-        <v>1701136800</v>
+        <v>1701126000</v>
       </c>
       <c r="B773" t="s">
         <v>660</v>
@@ -25118,7 +25118,7 @@
     </row>
     <row r="774" spans="1:10">
       <c r="A774">
-        <v>1701140400</v>
+        <v>1701129600</v>
       </c>
       <c r="B774" t="s">
         <v>661</v>
@@ -25147,7 +25147,7 @@
     </row>
     <row r="775" spans="1:10">
       <c r="A775">
-        <v>1701144000</v>
+        <v>1701133200</v>
       </c>
       <c r="B775" t="s">
         <v>662</v>
@@ -25176,7 +25176,7 @@
     </row>
     <row r="776" spans="1:10">
       <c r="A776">
-        <v>1701147600</v>
+        <v>1701136800</v>
       </c>
       <c r="B776" t="s">
         <v>663</v>
@@ -25205,7 +25205,7 @@
     </row>
     <row r="777" spans="1:10">
       <c r="A777">
-        <v>1701151200</v>
+        <v>1701140400</v>
       </c>
       <c r="B777" t="s">
         <v>664</v>
@@ -25234,7 +25234,7 @@
     </row>
     <row r="778" spans="1:10">
       <c r="A778">
-        <v>1701154800</v>
+        <v>1701144000</v>
       </c>
       <c r="B778" t="s">
         <v>665</v>
@@ -25263,7 +25263,7 @@
     </row>
     <row r="779" spans="1:10">
       <c r="A779">
-        <v>1701158400</v>
+        <v>1701147600</v>
       </c>
       <c r="B779" t="s">
         <v>666</v>
@@ -25292,7 +25292,7 @@
     </row>
     <row r="780" spans="1:10">
       <c r="A780">
-        <v>1701162000</v>
+        <v>1701151200</v>
       </c>
       <c r="B780" t="s">
         <v>667</v>
@@ -25321,7 +25321,7 @@
     </row>
     <row r="781" spans="1:10">
       <c r="A781">
-        <v>1701165600</v>
+        <v>1701154800</v>
       </c>
       <c r="B781" t="s">
         <v>668</v>
@@ -25350,7 +25350,7 @@
     </row>
     <row r="782" spans="1:10">
       <c r="A782">
-        <v>1701169200</v>
+        <v>1701158400</v>
       </c>
       <c r="B782" t="s">
         <v>669</v>
@@ -25379,7 +25379,7 @@
     </row>
     <row r="783" spans="1:10">
       <c r="A783">
-        <v>1701172800</v>
+        <v>1701162000</v>
       </c>
       <c r="B783" t="s">
         <v>670</v>
@@ -25408,7 +25408,7 @@
     </row>
     <row r="784" spans="1:10">
       <c r="A784">
-        <v>1701176400</v>
+        <v>1701165600</v>
       </c>
       <c r="B784" t="s">
         <v>671</v>
@@ -25437,7 +25437,7 @@
     </row>
     <row r="785" spans="1:10">
       <c r="A785">
-        <v>1701180000</v>
+        <v>1701169200</v>
       </c>
       <c r="B785" t="s">
         <v>672</v>
@@ -25466,7 +25466,7 @@
     </row>
     <row r="786" spans="1:10">
       <c r="A786">
-        <v>1701183600</v>
+        <v>1701172800</v>
       </c>
       <c r="B786" t="s">
         <v>673</v>
@@ -25495,7 +25495,7 @@
     </row>
     <row r="787" spans="1:10">
       <c r="A787">
-        <v>1701187200</v>
+        <v>1701176400</v>
       </c>
       <c r="B787" t="s">
         <v>674</v>
@@ -25524,7 +25524,7 @@
     </row>
     <row r="788" spans="1:10">
       <c r="A788">
-        <v>1701190800</v>
+        <v>1701180000</v>
       </c>
       <c r="B788" t="s">
         <v>675</v>
@@ -25553,7 +25553,7 @@
     </row>
     <row r="789" spans="1:10">
       <c r="A789">
-        <v>1701194400</v>
+        <v>1701183600</v>
       </c>
       <c r="B789" t="s">
         <v>676</v>
@@ -25582,7 +25582,7 @@
     </row>
     <row r="790" spans="1:10">
       <c r="A790">
-        <v>1701198000</v>
+        <v>1701187200</v>
       </c>
       <c r="B790" t="s">
         <v>677</v>
@@ -25611,7 +25611,7 @@
     </row>
     <row r="791" spans="1:10">
       <c r="A791">
-        <v>1701201600</v>
+        <v>1701190800</v>
       </c>
       <c r="B791" t="s">
         <v>678</v>
@@ -25640,7 +25640,7 @@
     </row>
     <row r="792" spans="1:10">
       <c r="A792">
-        <v>1701205200</v>
+        <v>1701194400</v>
       </c>
       <c r="B792" t="s">
         <v>679</v>
@@ -25669,7 +25669,7 @@
     </row>
     <row r="793" spans="1:10">
       <c r="A793">
-        <v>1701208800</v>
+        <v>1701198000</v>
       </c>
       <c r="B793" t="s">
         <v>680</v>
@@ -25698,7 +25698,7 @@
     </row>
     <row r="794" spans="1:10">
       <c r="A794">
-        <v>1701212400</v>
+        <v>1701201600</v>
       </c>
       <c r="B794" t="s">
         <v>681</v>
@@ -25727,7 +25727,7 @@
     </row>
     <row r="795" spans="1:10">
       <c r="A795">
-        <v>1701216000</v>
+        <v>1701205200</v>
       </c>
       <c r="B795" t="s">
         <v>682</v>
@@ -25756,7 +25756,7 @@
     </row>
     <row r="796" spans="1:10">
       <c r="A796">
-        <v>1701219600</v>
+        <v>1701208800</v>
       </c>
       <c r="B796" t="s">
         <v>683</v>
@@ -25785,7 +25785,7 @@
     </row>
     <row r="797" spans="1:10">
       <c r="A797">
-        <v>1701223200</v>
+        <v>1701212400</v>
       </c>
       <c r="B797" t="s">
         <v>684</v>
@@ -25814,7 +25814,7 @@
     </row>
     <row r="798" spans="1:10">
       <c r="A798">
-        <v>1701226800</v>
+        <v>1701216000</v>
       </c>
       <c r="B798" t="s">
         <v>685</v>
@@ -25843,7 +25843,7 @@
     </row>
     <row r="799" spans="1:10">
       <c r="A799">
-        <v>1701230400</v>
+        <v>1701219600</v>
       </c>
       <c r="B799" t="s">
         <v>686</v>
@@ -25872,7 +25872,7 @@
     </row>
     <row r="800" spans="1:10">
       <c r="A800">
-        <v>1701234000</v>
+        <v>1701223200</v>
       </c>
       <c r="B800" t="s">
         <v>687</v>
@@ -25901,7 +25901,7 @@
     </row>
     <row r="801" spans="1:10">
       <c r="A801">
-        <v>1701237600</v>
+        <v>1701226800</v>
       </c>
       <c r="B801" t="s">
         <v>688</v>
@@ -25930,7 +25930,7 @@
     </row>
     <row r="802" spans="1:10">
       <c r="A802">
-        <v>1701241200</v>
+        <v>1701230400</v>
       </c>
       <c r="B802" t="s">
         <v>689</v>
@@ -25959,7 +25959,7 @@
     </row>
     <row r="803" spans="1:10">
       <c r="A803">
-        <v>1701244800</v>
+        <v>1701234000</v>
       </c>
       <c r="B803" t="s">
         <v>690</v>
@@ -25988,7 +25988,7 @@
     </row>
     <row r="804" spans="1:10">
       <c r="A804">
-        <v>1701248400</v>
+        <v>1701237600</v>
       </c>
       <c r="B804" t="s">
         <v>691</v>
@@ -26017,7 +26017,7 @@
     </row>
     <row r="805" spans="1:10">
       <c r="A805">
-        <v>1701252000</v>
+        <v>1701241200</v>
       </c>
       <c r="B805" t="s">
         <v>692</v>
@@ -26046,7 +26046,7 @@
     </row>
     <row r="806" spans="1:10">
       <c r="A806">
-        <v>1701255600</v>
+        <v>1701244800</v>
       </c>
       <c r="B806" t="s">
         <v>693</v>
@@ -26075,7 +26075,7 @@
     </row>
     <row r="807" spans="1:10">
       <c r="A807">
-        <v>1701259200</v>
+        <v>1701248400</v>
       </c>
       <c r="B807" t="s">
         <v>694</v>
@@ -26104,7 +26104,7 @@
     </row>
     <row r="808" spans="1:10">
       <c r="A808">
-        <v>1701262800</v>
+        <v>1701252000</v>
       </c>
       <c r="B808" t="s">
         <v>695</v>
@@ -26133,7 +26133,7 @@
     </row>
     <row r="809" spans="1:10">
       <c r="A809">
-        <v>1701266400</v>
+        <v>1701255600</v>
       </c>
       <c r="B809" t="s">
         <v>696</v>
@@ -26162,7 +26162,7 @@
     </row>
     <row r="810" spans="1:10">
       <c r="A810">
-        <v>1701270000</v>
+        <v>1701259200</v>
       </c>
       <c r="B810" t="s">
         <v>697</v>
@@ -26191,7 +26191,7 @@
     </row>
     <row r="811" spans="1:10">
       <c r="A811">
-        <v>1701273600</v>
+        <v>1701262800</v>
       </c>
       <c r="B811" t="s">
         <v>698</v>
@@ -26220,7 +26220,7 @@
     </row>
     <row r="812" spans="1:10">
       <c r="A812">
-        <v>1701277200</v>
+        <v>1701266400</v>
       </c>
       <c r="B812" t="s">
         <v>699</v>
@@ -26249,7 +26249,7 @@
     </row>
     <row r="813" spans="1:10">
       <c r="A813">
-        <v>1701280800</v>
+        <v>1701270000</v>
       </c>
       <c r="B813" t="s">
         <v>700</v>
@@ -26278,7 +26278,7 @@
     </row>
     <row r="814" spans="1:10">
       <c r="A814">
-        <v>1701284400</v>
+        <v>1701273600</v>
       </c>
       <c r="B814" t="s">
         <v>701</v>
@@ -26307,7 +26307,7 @@
     </row>
     <row r="815" spans="1:10">
       <c r="A815">
-        <v>1701288000</v>
+        <v>1701277200</v>
       </c>
       <c r="B815" t="s">
         <v>702</v>
@@ -26336,7 +26336,7 @@
     </row>
     <row r="816" spans="1:10">
       <c r="A816">
-        <v>1701291600</v>
+        <v>1701280800</v>
       </c>
       <c r="B816" t="s">
         <v>703</v>
@@ -26365,7 +26365,7 @@
     </row>
     <row r="817" spans="1:10">
       <c r="A817">
-        <v>1701295200</v>
+        <v>1701284400</v>
       </c>
       <c r="B817" t="s">
         <v>704</v>
@@ -26394,7 +26394,7 @@
     </row>
     <row r="818" spans="1:10">
       <c r="A818">
-        <v>1701298800</v>
+        <v>1701288000</v>
       </c>
       <c r="B818" t="s">
         <v>705</v>
@@ -26423,7 +26423,7 @@
     </row>
     <row r="819" spans="1:10">
       <c r="A819">
-        <v>1701302400</v>
+        <v>1701291600</v>
       </c>
       <c r="B819" t="s">
         <v>706</v>
@@ -26452,7 +26452,7 @@
     </row>
     <row r="820" spans="1:10">
       <c r="A820">
-        <v>1701306000</v>
+        <v>1701295200</v>
       </c>
       <c r="B820" t="s">
         <v>707</v>
@@ -26481,7 +26481,7 @@
     </row>
     <row r="821" spans="1:10">
       <c r="A821">
-        <v>1701309600</v>
+        <v>1701298800</v>
       </c>
       <c r="B821" t="s">
         <v>708</v>
@@ -26510,7 +26510,7 @@
     </row>
     <row r="822" spans="1:10">
       <c r="A822">
-        <v>1701313200</v>
+        <v>1701302400</v>
       </c>
       <c r="B822" t="s">
         <v>709</v>
@@ -26539,7 +26539,7 @@
     </row>
     <row r="823" spans="1:10">
       <c r="A823">
-        <v>1701316800</v>
+        <v>1701306000</v>
       </c>
       <c r="B823" t="s">
         <v>710</v>
@@ -26568,7 +26568,7 @@
     </row>
     <row r="824" spans="1:10">
       <c r="A824">
-        <v>1701320400</v>
+        <v>1701309600</v>
       </c>
       <c r="B824" t="s">
         <v>711</v>
@@ -26597,7 +26597,7 @@
     </row>
     <row r="825" spans="1:10">
       <c r="A825">
-        <v>1701324000</v>
+        <v>1701313200</v>
       </c>
       <c r="B825" t="s">
         <v>712</v>
@@ -26626,7 +26626,7 @@
     </row>
     <row r="826" spans="1:10">
       <c r="A826">
-        <v>1701327600</v>
+        <v>1701316800</v>
       </c>
       <c r="B826" t="s">
         <v>713</v>
@@ -26655,7 +26655,7 @@
     </row>
     <row r="827" spans="1:10">
       <c r="A827">
-        <v>1701331200</v>
+        <v>1701320400</v>
       </c>
       <c r="B827" t="s">
         <v>714</v>
@@ -26684,7 +26684,7 @@
     </row>
     <row r="828" spans="1:10">
       <c r="A828">
-        <v>1701334800</v>
+        <v>1701324000</v>
       </c>
       <c r="B828" t="s">
         <v>715</v>
@@ -26713,7 +26713,7 @@
     </row>
     <row r="829" spans="1:10">
       <c r="A829">
-        <v>1701338400</v>
+        <v>1701327600</v>
       </c>
       <c r="B829" t="s">
         <v>716</v>
@@ -26742,7 +26742,7 @@
     </row>
     <row r="830" spans="1:10">
       <c r="A830">
-        <v>1701342000</v>
+        <v>1701331200</v>
       </c>
       <c r="B830" t="s">
         <v>717</v>
@@ -26771,7 +26771,7 @@
     </row>
     <row r="831" spans="1:10">
       <c r="A831">
-        <v>1701345600</v>
+        <v>1701334800</v>
       </c>
       <c r="B831" t="s">
         <v>718</v>
@@ -26800,7 +26800,7 @@
     </row>
     <row r="832" spans="1:10">
       <c r="A832">
-        <v>1701349200</v>
+        <v>1701338400</v>
       </c>
       <c r="B832" t="s">
         <v>719</v>
@@ -26829,7 +26829,7 @@
     </row>
     <row r="833" spans="1:10">
       <c r="A833">
-        <v>1701352800</v>
+        <v>1701342000</v>
       </c>
       <c r="B833" t="s">
         <v>720</v>
@@ -26858,7 +26858,7 @@
     </row>
     <row r="834" spans="1:10">
       <c r="A834">
-        <v>1701356400</v>
+        <v>1701345600</v>
       </c>
       <c r="B834" t="s">
         <v>721</v>
@@ -26887,7 +26887,7 @@
     </row>
     <row r="835" spans="1:10">
       <c r="A835">
-        <v>1701360000</v>
+        <v>1701349200</v>
       </c>
       <c r="B835" t="s">
         <v>722</v>
@@ -26916,7 +26916,7 @@
     </row>
     <row r="836" spans="1:10">
       <c r="A836">
-        <v>1701363600</v>
+        <v>1701352800</v>
       </c>
       <c r="B836" t="s">
         <v>723</v>
@@ -26945,7 +26945,7 @@
     </row>
     <row r="837" spans="1:10">
       <c r="A837">
-        <v>1701367200</v>
+        <v>1701356400</v>
       </c>
       <c r="B837" t="s">
         <v>724</v>
@@ -26974,7 +26974,7 @@
     </row>
     <row r="838" spans="1:10">
       <c r="A838">
-        <v>1701370800</v>
+        <v>1701360000</v>
       </c>
       <c r="B838" t="s">
         <v>725</v>
@@ -27003,7 +27003,7 @@
     </row>
     <row r="839" spans="1:10">
       <c r="A839">
-        <v>1701374400</v>
+        <v>1701363600</v>
       </c>
       <c r="B839" t="s">
         <v>726</v>
@@ -27032,7 +27032,7 @@
     </row>
     <row r="840" spans="1:10">
       <c r="A840">
-        <v>1701378000</v>
+        <v>1701367200</v>
       </c>
       <c r="B840" t="s">
         <v>727</v>
@@ -27061,7 +27061,7 @@
     </row>
     <row r="841" spans="1:10">
       <c r="A841">
-        <v>1701381600</v>
+        <v>1701370800</v>
       </c>
       <c r="B841" t="s">
         <v>728</v>
@@ -27090,7 +27090,7 @@
     </row>
     <row r="842" spans="1:10">
       <c r="A842">
-        <v>1701385200</v>
+        <v>1701374400</v>
       </c>
       <c r="B842" t="s">
         <v>729</v>
